--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -187,65 +187,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$I$6</c:f>
+              <c:f>'Blog'!$B$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01 Oct - 16 Oct</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17 Oct - 31 Oct</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01 Nov - 15 Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16 Nov - 30 Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>01 Dec - 03 Dec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04 Dec - 10 Dec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11 Dec - 15 Dec</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16 Dec - 20 Dec</c:v>
+                  <c:v>01 Jan - 31 Jan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$8:$I$8</c:f>
+              <c:f>'Blog'!$B$8:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="General">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,76 +225,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$I$6</c:f>
+              <c:f>'Blog'!$B$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01 Oct - 16 Oct</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17 Oct - 31 Oct</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01 Nov - 15 Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16 Nov - 30 Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>01 Dec - 03 Dec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04 Dec - 10 Dec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11 Dec - 15 Dec</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16 Dec - 20 Dec</c:v>
+                  <c:v>01 Jan - 31 Jan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$10:$I$10</c:f>
+              <c:f>'Blog'!$B$10:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="General">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="13722210"/>
-        <c:axId val="13425040"/>
-        <c:axId val="15796438"/>
+        <c:axId val="8032397"/>
+        <c:axId val="11328637"/>
+        <c:axId val="6350490"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="13722210"/>
+        <c:axId val="8032397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,7 +279,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13425040"/>
+        <c:crossAx val="11328637"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +288,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13425040"/>
+        <c:axId val="11328637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,12 +309,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13722210"/>
+        <c:crossAx val="8032397"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="15796438"/>
+        <c:axId val="6350490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,7 +335,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13425040"/>
+        <c:crossAx val="11328637"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -498,65 +414,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$I$6</c:f>
+              <c:f>'Blog'!$B$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01 Oct - 16 Oct</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17 Oct - 31 Oct</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01 Nov - 15 Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16 Nov - 30 Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>01 Dec - 03 Dec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04 Dec - 10 Dec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11 Dec - 15 Dec</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16 Dec - 20 Dec</c:v>
+                  <c:v>01 Jan - 31 Jan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$13:$I$13</c:f>
+              <c:f>'Blog'!$B$13:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="General">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>879.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>856.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,76 +452,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$I$6</c:f>
+              <c:f>'Blog'!$B$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01 Oct - 16 Oct</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17 Oct - 31 Oct</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01 Nov - 15 Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16 Nov - 30 Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>01 Dec - 03 Dec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04 Dec - 10 Dec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11 Dec - 15 Dec</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16 Dec - 20 Dec</c:v>
+                  <c:v>01 Jan - 31 Jan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$14:$I$14</c:f>
+              <c:f>'Blog'!$B$14:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="General">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>475.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>567.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2962408"/>
-        <c:axId val="3580322"/>
-        <c:axId val="9642934"/>
+        <c:axId val="7787474"/>
+        <c:axId val="9634072"/>
+        <c:axId val="13747308"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2962408"/>
+        <c:axId val="7787474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +506,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3580322"/>
+        <c:crossAx val="9634072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +515,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3580322"/>
+        <c:axId val="9634072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,12 +536,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2962408"/>
+        <c:crossAx val="7787474"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="9642934"/>
+        <c:axId val="13747308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +562,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3580322"/>
+        <c:crossAx val="9634072"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -815,105 +647,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3810000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2336800" cy="2161540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3810000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2336800" cy="2161540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3810000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2336800" cy="2161540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -927,15 +660,8 @@
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.998876404494382"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.898876404494384"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -957,42 +683,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>01 Oct - 16 Oct</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>17 Oct - 31 Oct</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>01 Nov - 15 Nov</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>16 Nov - 30 Nov</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>01 Dec - 03 Dec</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>04 Dec - 10 Dec</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>11 Dec - 15 Dec</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>16 Dec - 20 Dec</t>
+          <t>01 Jan - 31 Jan</t>
         </is>
       </c>
     </row>
@@ -1003,13 +694,6 @@
         </is>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
     </row>
     <row r="8" customHeight="1" ht="20">
       <c r="A8" s="6" t="inlineStr">
@@ -1020,27 +704,6 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6">
-        <v>90</v>
-      </c>
-      <c r="G8" s="6">
-        <v>45</v>
-      </c>
-      <c r="H8" s="6">
-        <v>45</v>
-      </c>
-      <c r="I8" s="6">
-        <v>54</v>
-      </c>
     </row>
     <row r="9" customHeight="1" ht="20">
       <c r="A9" s="6" t="inlineStr">
@@ -1051,27 +714,6 @@
       <c r="B9" s="6">
         <v>0.0</v>
       </c>
-      <c r="C9" s="6">
-        <v>400.0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>80.0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>900.0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>-50.0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>20.0</v>
-      </c>
     </row>
     <row r="10" customHeight="1" ht="20">
       <c r="A10" s="6" t="inlineStr">
@@ -1082,27 +724,6 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
-        <v>46</v>
-      </c>
-      <c r="F10" s="6">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6">
-        <v>67</v>
-      </c>
-      <c r="H10" s="6">
-        <v>567</v>
-      </c>
-      <c r="I10" s="6">
-        <v>76</v>
-      </c>
     </row>
     <row r="11" customHeight="1" ht="20">
       <c r="A11" s="6" t="inlineStr">
@@ -1113,27 +734,6 @@
       <c r="B11" s="6">
         <v>0.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>200.0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>33.33</v>
-      </c>
-      <c r="E11" s="6">
-        <v>475.0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-82.61</v>
-      </c>
-      <c r="G11" s="6">
-        <v>737.5</v>
-      </c>
-      <c r="H11" s="6">
-        <v>746.27</v>
-      </c>
-      <c r="I11" s="6">
-        <v>-86.6</v>
-      </c>
     </row>
     <row r="12" customHeight="1" ht="20">
       <c r="A12" s="4" t="inlineStr">
@@ -1142,13 +742,6 @@
         </is>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
     </row>
     <row r="13" customHeight="1" ht="20">
       <c r="A13" s="6" t="inlineStr">
@@ -1159,27 +752,6 @@
       <c r="B13" s="6">
         <v>3.0</v>
       </c>
-      <c r="C13" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>87.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>56.0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>879.0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>856.0</v>
-      </c>
     </row>
     <row r="14" customHeight="1" ht="20">
       <c r="A14" s="6" t="inlineStr">
@@ -1190,27 +762,6 @@
       <c r="B14" s="6">
         <v>4.0</v>
       </c>
-      <c r="C14" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>35.0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>475.0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>98.0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>567.0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>35.0</v>
-      </c>
     </row>
     <row r="15" customHeight="1" ht="20">
       <c r="A15" s="6" t="inlineStr">
@@ -1220,27 +771,6 @@
       </c>
       <c r="B15" s="6">
         <v>5</v>
-      </c>
-      <c r="C15" s="6">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6">
-        <v>90</v>
-      </c>
-      <c r="F15" s="6">
-        <v>798</v>
-      </c>
-      <c r="G15" s="6">
-        <v>567</v>
-      </c>
-      <c r="H15" s="6">
-        <v>476</v>
-      </c>
-      <c r="I15" s="6">
-        <v>98</v>
       </c>
     </row>
     <row r="16"/>
@@ -1307,111 +837,6 @@
     <row r="71"/>
     <row r="72"/>
     <row r="73"/>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>Titulo 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103">
-      <c r="A103" s="3" t="inlineStr">
-        <is>
-          <t>Imagen de Prueba 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>Titulo 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>

--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -247,12 +247,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="8032397"/>
-        <c:axId val="11328637"/>
-        <c:axId val="6350490"/>
+        <c:axId val="6273774"/>
+        <c:axId val="5127696"/>
+        <c:axId val="11784987"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="8032397"/>
+        <c:axId val="6273774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,7 +279,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11328637"/>
+        <c:crossAx val="5127696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -288,7 +288,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11328637"/>
+        <c:axId val="5127696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,12 +309,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8032397"/>
+        <c:crossAx val="6273774"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="6350490"/>
+        <c:axId val="11784987"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,7 +335,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11328637"/>
+        <c:crossAx val="5127696"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -474,12 +474,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="7787474"/>
-        <c:axId val="9634072"/>
-        <c:axId val="13747308"/>
+        <c:axId val="15664119"/>
+        <c:axId val="8431262"/>
+        <c:axId val="16569565"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="7787474"/>
+        <c:axId val="15664119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +506,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9634072"/>
+        <c:crossAx val="8431262"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -515,7 +515,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9634072"/>
+        <c:axId val="8431262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,12 +536,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7787474"/>
+        <c:crossAx val="15664119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="13747308"/>
+        <c:axId val="16569565"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +562,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9634072"/>
+        <c:crossAx val="8431262"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>

--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -187,23 +187,65 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$B$6</c:f>
+              <c:f>'Blog'!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>01 Jan - 31 Jan</c:v>
+                  <c:v>01 Oct - 16 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17 Oct - 31 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01 Nov - 15 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16 Nov - 30 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>01 Dec - 03 Dec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04 Dec - 10 Dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11 Dec - 15 Dec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16 Dec - 20 Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$8:$B$8</c:f>
+              <c:f>'Blog'!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,34 +267,76 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$B$6</c:f>
+              <c:f>'Blog'!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>01 Jan - 31 Jan</c:v>
+                  <c:v>01 Oct - 16 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17 Oct - 31 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01 Nov - 15 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16 Nov - 30 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>01 Dec - 03 Dec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04 Dec - 10 Dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11 Dec - 15 Dec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16 Dec - 20 Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$10:$B$10</c:f>
+              <c:f>'Blog'!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6273774"/>
-        <c:axId val="5127696"/>
-        <c:axId val="11784987"/>
+        <c:axId val="3349563"/>
+        <c:axId val="13654679"/>
+        <c:axId val="13327745"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="6273774"/>
+        <c:axId val="3349563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,7 +363,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5127696"/>
+        <c:crossAx val="13654679"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -288,7 +372,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5127696"/>
+        <c:axId val="13654679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,12 +393,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6273774"/>
+        <c:crossAx val="3349563"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="11784987"/>
+        <c:axId val="13327745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,7 +419,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5127696"/>
+        <c:crossAx val="13654679"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -414,23 +498,65 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$B$6</c:f>
+              <c:f>'Blog'!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>01 Jan - 31 Jan</c:v>
+                  <c:v>01 Oct - 16 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17 Oct - 31 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01 Nov - 15 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16 Nov - 30 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>01 Dec - 03 Dec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04 Dec - 10 Dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11 Dec - 15 Dec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16 Dec - 20 Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$13:$B$13</c:f>
+              <c:f>'Blog'!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>879.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>856.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,34 +578,76 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$B$6</c:f>
+              <c:f>'Blog'!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>01 Jan - 31 Jan</c:v>
+                  <c:v>01 Oct - 16 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17 Oct - 31 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01 Nov - 15 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16 Nov - 30 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>01 Dec - 03 Dec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04 Dec - 10 Dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11 Dec - 15 Dec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16 Dec - 20 Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$14:$B$14</c:f>
+              <c:f>'Blog'!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15664119"/>
-        <c:axId val="8431262"/>
-        <c:axId val="16569565"/>
+        <c:axId val="1973223"/>
+        <c:axId val="7209378"/>
+        <c:axId val="361906"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15664119"/>
+        <c:axId val="1973223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +674,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8431262"/>
+        <c:crossAx val="7209378"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -515,7 +683,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8431262"/>
+        <c:axId val="7209378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,12 +704,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15664119"/>
+        <c:crossAx val="1973223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="16569565"/>
+        <c:axId val="361906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +730,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8431262"/>
+        <c:crossAx val="7209378"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -647,6 +815,105 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -660,8 +927,15 @@
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.898876404494384"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.998876404494382"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -683,7 +957,42 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>01 Jan - 31 Jan</t>
+          <t>01 Oct - 16 Oct</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>17 Oct - 31 Oct</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>01 Nov - 15 Nov</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>16 Nov - 30 Nov</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>01 Dec - 03 Dec</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>04 Dec - 10 Dec</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>11 Dec - 15 Dec</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>16 Dec - 20 Dec</t>
         </is>
       </c>
     </row>
@@ -694,6 +1003,13 @@
         </is>
       </c>
       <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" customHeight="1" ht="20">
       <c r="A8" s="6" t="inlineStr">
@@ -704,6 +1020,27 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6">
+        <v>90</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" customHeight="1" ht="20">
       <c r="A9" s="6" t="inlineStr">
@@ -714,6 +1051,27 @@
       <c r="B9" s="6">
         <v>0.0</v>
       </c>
+      <c r="C9" s="6">
+        <v>400.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>80.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>900.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-50.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="10" customHeight="1" ht="20">
       <c r="A10" s="6" t="inlineStr">
@@ -724,6 +1082,27 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
+      <c r="C10" s="6">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6">
+        <v>67</v>
+      </c>
+      <c r="H10" s="6">
+        <v>567</v>
+      </c>
+      <c r="I10" s="6">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" customHeight="1" ht="20">
       <c r="A11" s="6" t="inlineStr">
@@ -734,6 +1113,27 @@
       <c r="B11" s="6">
         <v>0.0</v>
       </c>
+      <c r="C11" s="6">
+        <v>200.0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>33.33</v>
+      </c>
+      <c r="E11" s="6">
+        <v>475.0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-82.61</v>
+      </c>
+      <c r="G11" s="6">
+        <v>737.5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>746.27</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-86.6</v>
+      </c>
     </row>
     <row r="12" customHeight="1" ht="20">
       <c r="A12" s="4" t="inlineStr">
@@ -742,6 +1142,13 @@
         </is>
       </c>
       <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" customHeight="1" ht="20">
       <c r="A13" s="6" t="inlineStr">
@@ -752,6 +1159,27 @@
       <c r="B13" s="6">
         <v>3.0</v>
       </c>
+      <c r="C13" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>87.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>56.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>879.0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>856.0</v>
+      </c>
     </row>
     <row r="14" customHeight="1" ht="20">
       <c r="A14" s="6" t="inlineStr">
@@ -762,6 +1190,27 @@
       <c r="B14" s="6">
         <v>4.0</v>
       </c>
+      <c r="C14" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>475.0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>98.0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>567.0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="15" customHeight="1" ht="20">
       <c r="A15" s="6" t="inlineStr">
@@ -771,6 +1220,27 @@
       </c>
       <c r="B15" s="6">
         <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>90</v>
+      </c>
+      <c r="F15" s="6">
+        <v>798</v>
+      </c>
+      <c r="G15" s="6">
+        <v>567</v>
+      </c>
+      <c r="H15" s="6">
+        <v>476</v>
+      </c>
+      <c r="I15" s="6">
+        <v>98</v>
       </c>
     </row>
     <row r="16"/>
@@ -837,6 +1307,111 @@
     <row r="71"/>
     <row r="72"/>
     <row r="73"/>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Titulo 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>Titulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>

--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -331,12 +331,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="3349563"/>
-        <c:axId val="13654679"/>
-        <c:axId val="13327745"/>
+        <c:axId val="11220192"/>
+        <c:axId val="16280569"/>
+        <c:axId val="7007060"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="3349563"/>
+        <c:axId val="11220192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,7 +363,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13654679"/>
+        <c:crossAx val="16280569"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +372,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13654679"/>
+        <c:axId val="16280569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,12 +393,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3349563"/>
+        <c:crossAx val="11220192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="13327745"/>
+        <c:axId val="7007060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,7 +419,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13654679"/>
+        <c:crossAx val="16280569"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -642,12 +642,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1973223"/>
-        <c:axId val="7209378"/>
-        <c:axId val="361906"/>
+        <c:axId val="13963053"/>
+        <c:axId val="14588376"/>
+        <c:axId val="4235700"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="1973223"/>
+        <c:axId val="13963053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +674,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7209378"/>
+        <c:crossAx val="14588376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +683,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7209378"/>
+        <c:axId val="14588376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,12 +704,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1973223"/>
+        <c:crossAx val="13963053"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="361906"/>
+        <c:axId val="4235700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +730,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7209378"/>
+        <c:crossAx val="14588376"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>

--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Blog" sheetId="1" r:id="rId1"/>
+    <sheet name="Facebook" sheetId="1" r:id="rId1"/>
+    <sheet name="Blog" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -14,27 +15,60 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <sz val="14"/>
       <family val="1"/>
       <b val="true"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
       <family val="1"/>
       <b val="true"/>
       <color rgb="FFFFFFFF"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,8 +85,18 @@
         <fgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -110,18 +154,66 @@
         <color rgb="#00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="2" numFmtId="0" fontId="0" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="4" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="2" numFmtId="0" fontId="2" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="3" numFmtId="0" fontId="3" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="4" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="5" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="5" numFmtId="0" fontId="6" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="6" numFmtId="0" fontId="7" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="7" numFmtId="0" fontId="8" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -143,7 +235,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:t>Visitas</a:t>
+              <a:t>Comunidad</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -153,8 +245,8 @@
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:view3D>
-      <c:rotX val="10"/>
-      <c:rotY val="10"/>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
@@ -180,72 +272,42 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>visitas unicas</c:v>
+                  <c:v>Nuevos Fans</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$I$6</c:f>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>01 Oct - 16 Oct</c:v>
+                  <c:v>01 Oct-03 Oct</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17 Oct - 31 Oct</c:v>
+                  <c:v>04 Oct-10 Oct</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>01 Nov - 15 Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16 Nov - 30 Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>01 Dec - 03 Dec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04 Dec - 10 Dec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11 Dec - 15 Dec</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16 Dec - 20 Dec</c:v>
+                  <c:v>11 Oct-20 Oct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$8:$I$8</c:f>
+              <c:f>'Facebook'!$C$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>54</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,83 +322,103 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#paginas vistas</c:v>
+                  <c:v>Fans Totales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$I$6</c:f>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>01 Oct - 16 Oct</c:v>
+                  <c:v>01 Oct-03 Oct</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17 Oct - 31 Oct</c:v>
+                  <c:v>04 Oct-10 Oct</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>01 Nov - 15 Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16 Nov - 30 Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>01 Dec - 03 Dec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04 Dec - 10 Dec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11 Dec - 15 Dec</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16 Dec - 20 Dec</c:v>
+                  <c:v>11 Oct-20 Oct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$10:$I$10</c:f>
+              <c:f>'Facebook'!$C$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>76</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11220192"/>
-        <c:axId val="16280569"/>
-        <c:axId val="7007060"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objetivo Fans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="12410912"/>
+        <c:axId val="10235619"/>
+        <c:axId val="14088470"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="11220192"/>
+        <c:axId val="12410912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,7 +445,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16280569"/>
+        <c:crossAx val="10235619"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +454,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16280569"/>
+        <c:axId val="10235619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,12 +475,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11220192"/>
+        <c:crossAx val="12410912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="7007060"/>
+        <c:axId val="14088470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,7 +501,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16280569"/>
+        <c:crossAx val="10235619"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -454,6 +536,1621 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
+              <a:t>Interactividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Interacciones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># clics Anuncios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interacciones Total Marca Plataforma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8332.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="6312156"/>
+        <c:axId val="3953609"/>
+        <c:axId val="5053514"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="6312156"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3953609"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="3953609"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6312156"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="5053514"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3953609"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Alcance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Impresiones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alcance Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alcance Potencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1948283"/>
+        <c:axId val="6876761"/>
+        <c:axId val="12697077"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1948283"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6876761"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6876761"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948283"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="12697077"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6876761"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Inversiones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Nuevos Fans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1291.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1957976"/>
+        <c:axId val="186574"/>
+        <c:axId val="6340167"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1957976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186574"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186574"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1957976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="6340167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186574"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Costes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTR Anuncios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>567.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPC anuncios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8567.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coste por iteracion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPM Anuncios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>476.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPM General</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coste por fan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Facebook'!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct-03 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04 Oct-10 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11 Oct-20 Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Facebook'!$C$38:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>80.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="11450406"/>
+        <c:axId val="7207534"/>
+        <c:axId val="6017680"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="11450406"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7207534"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7207534"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11450406"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="6017680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7207534"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Visitas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>visitas unicas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Blog'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct - 16 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17 Oct - 31 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01 Nov - 15 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16 Nov - 30 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>01 Dec - 03 Dec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04 Dec - 10 Dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11 Dec - 15 Dec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16 Dec - 20 Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Blog'!$C$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#paginas vistas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Blog'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Oct - 16 Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17 Oct - 31 Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01 Nov - 15 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16 Nov - 30 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>01 Dec - 03 Dec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04 Dec - 10 Dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11 Dec - 15 Dec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16 Dec - 20 Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Blog'!$C$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="7499822"/>
+        <c:axId val="4673402"/>
+        <c:axId val="6043899"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="7499822"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4673402"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4673402"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7499822"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="6043899"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4673402"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
               <a:t>Porcentajes</a:t>
             </a:r>
           </a:p>
@@ -464,8 +2161,8 @@
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:view3D>
-      <c:rotX val="10"/>
-      <c:rotY val="10"/>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
@@ -498,7 +2195,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$I$6</c:f>
+              <c:f>'Blog'!$C$6:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -530,7 +2227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$13:$I$13</c:f>
+              <c:f>'Blog'!$C$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -578,7 +2275,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Blog'!$B$6:$I$6</c:f>
+              <c:f>'Blog'!$C$6:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -610,7 +2307,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Blog'!$B$14:$I$14</c:f>
+              <c:f>'Blog'!$C$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -642,12 +2339,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="13963053"/>
-        <c:axId val="14588376"/>
-        <c:axId val="4235700"/>
+        <c:axId val="3644818"/>
+        <c:axId val="2044325"/>
+        <c:axId val="5768662"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="13963053"/>
+        <c:axId val="3644818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +2371,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14588376"/>
+        <c:crossAx val="2044325"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +2380,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14588376"/>
+        <c:axId val="2044325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,12 +2401,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13963053"/>
+        <c:crossAx val="3644818"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="4235700"/>
+        <c:axId val="5768662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +2427,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14588376"/>
+        <c:crossAx val="2044325"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -757,15 +2454,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -787,15 +2484,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -815,11 +2512,232 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="item_0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="item_0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="item_0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="item_1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="item_1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3810000"/>
@@ -850,9 +2768,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3810000"/>
@@ -883,9 +2801,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3810000"/>
@@ -927,15 +2845,11 @@
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.998876404494382"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.39887640449438"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -943,313 +2857,1651 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>PAGINA DE BLOG</t>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE FACEBOOK</t>
         </is>
       </c>
     </row>
     <row r="4"/>
     <row r="5"/>
     <row r="6" customHeight="1" ht="20">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>01 Oct-03 Oct</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>04 Oct-10 Oct</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>11 Oct-20 Oct</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Acciones durantes el periodo</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Prueba 1</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Prueba 2</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Prueba 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t># new fans</t>
+        </is>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t># fans reales</t>
+        </is>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>% crecimiento fans</t>
+        </is>
+      </c>
+      <c r="C10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1700.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Objetivo fans</t>
+        </is>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>Ranking en Espana</t>
+        </is>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Ranking Mundial</t>
+        </is>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Interactividad y Alcance</t>
+        </is>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t># impresiones</t>
+        </is>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t># interacciones</t>
+        </is>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Alcance Total</t>
+        </is>
+      </c>
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>% cambio en Alcance Total</t>
+        </is>
+      </c>
+      <c r="C18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>300.0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>91.67</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Alcance Potencial</t>
+        </is>
+      </c>
+      <c r="C19" s="6">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6">
+        <v>25</v>
+      </c>
+      <c r="E19" s="6">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t># impresiones anuncios</t>
+        </is>
+      </c>
+      <c r="C20" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="20">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t># clics Anuncios</t>
+        </is>
+      </c>
+      <c r="C21" s="6">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6">
+        <v>7456</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="20">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t># fans a traves de anuncios</t>
+        </is>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="20">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>Interacciones totales de la marca en plataforma</t>
+        </is>
+      </c>
+      <c r="C23" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8332.0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="20">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>% cambio en interacciones</t>
+        </is>
+      </c>
+      <c r="C24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>257.14</v>
+      </c>
+      <c r="E24" s="6">
+        <v>16564.0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="20">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>Impresiones totales de la marca en plataforma</t>
+        </is>
+      </c>
+      <c r="C25" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>48.0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="20">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>% cambio en impresiones</t>
+        </is>
+      </c>
+      <c r="C26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>300.0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>197.92</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="20">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" customHeight="1" ht="20">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>Inversion agencia</t>
+        </is>
+      </c>
+      <c r="C28" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>29.0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>476.0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="20">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C29" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>768.0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="20">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>Inversion de anuncios</t>
+        </is>
+      </c>
+      <c r="C30" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="20">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C31" s="6">
+        <v>36.0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1291.0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="20">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Costes</t>
+        </is>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" customHeight="1" ht="20">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>CTR Anuncios</t>
+        </is>
+      </c>
+      <c r="C33" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>567.0</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="20">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>CPM Anuncios</t>
+        </is>
+      </c>
+      <c r="C34" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>476.0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="20">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>CPC Anuncios</t>
+        </is>
+      </c>
+      <c r="C35" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>8567.0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="20">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>CPM General</t>
+        </is>
+      </c>
+      <c r="C36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="20">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>Coste por Interaccion</t>
+        </is>
+      </c>
+      <c r="C37" s="6">
+        <v>2.57</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="20">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>Coste por Fan</t>
+        </is>
+      </c>
+      <c r="C38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5.29</v>
+      </c>
+      <c r="E38" s="6">
+        <v>80.69</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Tabla para Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS FACEBOOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Fans</t>
+        </is>
+      </c>
+    </row>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="137"/>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interactividad</t>
+        </is>
+      </c>
+    </row>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178">
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="179"/>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Alcance</t>
+        </is>
+      </c>
+    </row>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220">
+      <c r="A220" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="221"/>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Crecimiento Inversion</t>
+        </is>
+      </c>
+    </row>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262">
+      <c r="A262" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="263"/>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Costes</t>
+        </is>
+      </c>
+    </row>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279">
+      <c r="A279" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B279" s="3" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba 2 Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306">
+      <c r="A306" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B306" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="307"/>
+    <row r="308">
+      <c r="A308" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen de Prueba la cual es de youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321">
+      <c r="A321" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B321" s="3" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba 1 Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348">
+      <c r="A348" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B348" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="349"/>
+    <row r="350">
+      <c r="A350" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B350" s="0" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE BLOG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
           <t>01 Oct - 16 Oct</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>17 Oct - 31 Oct</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>01 Nov - 15 Nov</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>16 Nov - 30 Nov</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>01 Dec - 03 Dec</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="H6" s="10" t="inlineStr">
         <is>
           <t>04 Dec - 10 Dec</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="I6" s="10" t="inlineStr">
         <is>
           <t>11 Dec - 15 Dec</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="J6" s="10" t="inlineStr">
         <is>
           <t>16 Dec - 20 Dec</t>
         </is>
       </c>
     </row>
     <row r="7" customHeight="1" ht="20">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Visitas</t>
         </is>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" customHeight="1" ht="20">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>visitas unicas</t>
-        </is>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t># visitas unicas</t>
+        </is>
+      </c>
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="11">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="11">
         <v>9</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="11">
         <v>9</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="11">
         <v>90</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="11">
         <v>45</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="11">
         <v>45</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="11">
         <v>54</v>
       </c>
     </row>
     <row r="9" customHeight="1" ht="20">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>% diferencia</t>
         </is>
       </c>
-      <c r="B9" s="6">
+      <c r="C9" s="11">
         <v>0.0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="11">
         <v>400.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="11">
         <v>80.0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="11">
         <v>0.0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="11">
         <v>900.0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="11">
         <v>-50.0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="11">
         <v>0.0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="11">
         <v>20.0</v>
       </c>
     </row>
     <row r="10" customHeight="1" ht="20">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t># paginas vistas</t>
         </is>
       </c>
-      <c r="B10" s="6">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="11">
         <v>6</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="11">
         <v>46</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="11">
         <v>8</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="11">
         <v>67</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="11">
         <v>567</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="11">
         <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" ht="20">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>% diferencia</t>
         </is>
       </c>
-      <c r="B11" s="6">
+      <c r="C11" s="11">
         <v>0.0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="11">
         <v>200.0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="11">
         <v>33.33</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="11">
         <v>475.0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="11">
         <v>-82.61</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="11">
         <v>737.5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="11">
         <v>746.27</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="11">
         <v>-86.6</v>
       </c>
     </row>
     <row r="12" customHeight="1" ht="20">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Porcentajes</t>
         </is>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" customHeight="1" ht="20">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>Porcentaje de Rebote</t>
         </is>
       </c>
-      <c r="B13" s="6">
+      <c r="C13" s="11">
         <v>3.0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="11">
         <v>7.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="11">
         <v>7.0</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="11">
         <v>87.0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="11">
         <v>56.0</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="11">
         <v>879.0</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="11">
         <v>9.0</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="11">
         <v>856.0</v>
       </c>
     </row>
     <row r="14" customHeight="1" ht="20">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>Porcentaje de visitas nuevas</t>
         </is>
       </c>
-      <c r="B14" s="6">
+      <c r="C14" s="11">
         <v>4.0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="11">
         <v>8.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="11">
         <v>6.0</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="11">
         <v>35.0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="11">
         <v>475.0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="11">
         <v>98.0</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="11">
         <v>567.0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="11">
         <v>35.0</v>
       </c>
     </row>
     <row r="15" customHeight="1" ht="20">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t># de posts</t>
         </is>
       </c>
-      <c r="B15" s="6">
+      <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="11">
         <v>4</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="11">
         <v>90</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="11">
         <v>798</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="11">
         <v>567</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="11">
         <v>476</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="11">
         <v>98</v>
       </c>
     </row>
     <row r="16"/>
-    <row r="17"/>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
     <row r="18"/>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>GRAFICOS BLOG</t>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Comentario sobre la tabla</t>
         </is>
       </c>
     </row>
@@ -1272,7 +4524,18 @@
     <row r="36"/>
     <row r="37"/>
     <row r="38"/>
-    <row r="39"/>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS BLOG</t>
+        </is>
+      </c>
+    </row>
     <row r="40"/>
     <row r="41"/>
     <row r="42"/>
@@ -1299,21 +4562,37 @@
     <row r="63"/>
     <row r="64"/>
     <row r="65"/>
-    <row r="66"/>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
     <row r="67"/>
-    <row r="68"/>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Visitas</t>
+        </is>
+      </c>
+    </row>
     <row r="69"/>
     <row r="70"/>
     <row r="71"/>
     <row r="72"/>
     <row r="73"/>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>Titulo 1</t>
-        </is>
-      </c>
-    </row>
+    <row r="74"/>
     <row r="75"/>
     <row r="76"/>
     <row r="77"/>
@@ -1342,18 +4621,34 @@
     <row r="100"/>
     <row r="101"/>
     <row r="102"/>
-    <row r="103">
-      <c r="A103" s="3" t="inlineStr">
-        <is>
-          <t>Imagen de Prueba 2</t>
-        </is>
-      </c>
-    </row>
+    <row r="103"/>
     <row r="104"/>
     <row r="105"/>
-    <row r="106"/>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
     <row r="107"/>
-    <row r="108"/>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Porcentajes</t>
+        </is>
+      </c>
+    </row>
     <row r="109"/>
     <row r="110"/>
     <row r="111"/>
@@ -1368,7 +4663,18 @@
     <row r="120"/>
     <row r="121"/>
     <row r="122"/>
-    <row r="123"/>
+    <row r="123">
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B123" s="8" t="inlineStr">
+        <is>
+          <t>Titulo 1</t>
+        </is>
+      </c>
+    </row>
     <row r="124"/>
     <row r="125"/>
     <row r="126"/>
@@ -1377,13 +4683,7 @@
     <row r="129"/>
     <row r="130"/>
     <row r="131"/>
-    <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>Titulo 3</t>
-        </is>
-      </c>
-    </row>
+    <row r="132"/>
     <row r="133"/>
     <row r="134"/>
     <row r="135"/>
@@ -1401,9 +4701,31 @@
     <row r="147"/>
     <row r="148"/>
     <row r="149"/>
-    <row r="150"/>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
     <row r="151"/>
-    <row r="152"/>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen 1</t>
+        </is>
+      </c>
+    </row>
     <row r="153"/>
     <row r="154"/>
     <row r="155"/>
@@ -1412,11 +4734,165 @@
     <row r="158"/>
     <row r="159"/>
     <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165">
+      <c r="A165" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B165" s="8" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="193"/>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>Comentario de Imagen de Prueba 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207">
+      <c r="A207" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B207" s="8" t="inlineStr">
+        <is>
+          <t>Titulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234">
+      <c r="A234" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="235"/>
+    <row r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>Comentario 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
-  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
-  <pageSetup/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="Facebook" sheetId="1" r:id="rId1"/>
     <sheet name="Blog" sheetId="2" r:id="rId2"/>
+    <sheet name="Flickr" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -15,7 +16,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -67,8 +68,31 @@
       <sz val="11"/>
       <family val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +119,18 @@
         <fgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border/>
     <border>
       <left style="thin">
@@ -196,11 +230,53 @@
         <color rgb="#00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -213,6 +289,11 @@
     <xf borderId="5" numFmtId="0" fontId="6" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="6" numFmtId="0" fontId="7" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="7" numFmtId="0" fontId="8" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="9" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="8" numFmtId="0" fontId="10" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="9" numFmtId="0" fontId="11" fillId="7" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="10" numFmtId="0" fontId="12" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -413,12 +494,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="12410912"/>
-        <c:axId val="10235619"/>
-        <c:axId val="14088470"/>
+        <c:axId val="14829237"/>
+        <c:axId val="10455957"/>
+        <c:axId val="14255773"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="12410912"/>
+        <c:axId val="14829237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +526,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10235619"/>
+        <c:crossAx val="10455957"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -454,7 +535,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10235619"/>
+        <c:axId val="10455957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,12 +556,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12410912"/>
+        <c:crossAx val="14829237"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="14088470"/>
+        <c:axId val="14255773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +582,246 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10235619"/>
+        <c:crossAx val="10455957"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Inversion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos contactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flickr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flickr'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>-9781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flickr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flickr'!$C$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>11352.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>20574.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="979272"/>
+        <c:axId val="4068479"/>
+        <c:axId val="2087439"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="979272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4068479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4068479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="979272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="2087439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4068479"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -714,12 +1034,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6312156"/>
-        <c:axId val="3953609"/>
-        <c:axId val="5053514"/>
+        <c:axId val="11952602"/>
+        <c:axId val="15031624"/>
+        <c:axId val="9719783"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="6312156"/>
+        <c:axId val="11952602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +1066,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3953609"/>
+        <c:crossAx val="15031624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -755,7 +1075,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3953609"/>
+        <c:axId val="15031624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,12 +1096,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6312156"/>
+        <c:crossAx val="11952602"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="5053514"/>
+        <c:axId val="9719783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +1122,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3953609"/>
+        <c:crossAx val="15031624"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1015,12 +1335,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1948283"/>
-        <c:axId val="6876761"/>
-        <c:axId val="12697077"/>
+        <c:axId val="754670"/>
+        <c:axId val="7988881"/>
+        <c:axId val="1043027"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="1948283"/>
+        <c:axId val="754670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1367,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6876761"/>
+        <c:crossAx val="7988881"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1056,7 +1376,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6876761"/>
+        <c:axId val="7988881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,12 +1397,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1948283"/>
+        <c:crossAx val="754670"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="12697077"/>
+        <c:axId val="1043027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1423,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6876761"/>
+        <c:crossAx val="7988881"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1266,12 +1586,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1957976"/>
-        <c:axId val="186574"/>
-        <c:axId val="6340167"/>
+        <c:axId val="2182506"/>
+        <c:axId val="11235310"/>
+        <c:axId val="13918763"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="1957976"/>
+        <c:axId val="2182506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1618,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186574"/>
+        <c:crossAx val="11235310"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1627,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186574"/>
+        <c:axId val="11235310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,12 +1648,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1957976"/>
+        <c:crossAx val="2182506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="6340167"/>
+        <c:axId val="13918763"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1674,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186574"/>
+        <c:crossAx val="11235310"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1717,12 +2037,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11450406"/>
-        <c:axId val="7207534"/>
-        <c:axId val="6017680"/>
+        <c:axId val="15573726"/>
+        <c:axId val="7412841"/>
+        <c:axId val="13983815"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="11450406"/>
+        <c:axId val="15573726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,7 +2069,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7207534"/>
+        <c:crossAx val="7412841"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,7 +2078,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7207534"/>
+        <c:axId val="7412841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,12 +2099,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11450406"/>
+        <c:crossAx val="15573726"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="6017680"/>
+        <c:axId val="13983815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +2125,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7207534"/>
+        <c:crossAx val="7412841"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2028,12 +2348,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="7499822"/>
-        <c:axId val="4673402"/>
-        <c:axId val="6043899"/>
+        <c:axId val="9967974"/>
+        <c:axId val="4940504"/>
+        <c:axId val="1353257"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="7499822"/>
+        <c:axId val="9967974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2380,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4673402"/>
+        <c:crossAx val="4940504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2069,7 +2389,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4673402"/>
+        <c:axId val="4940504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,12 +2410,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7499822"/>
+        <c:crossAx val="9967974"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="6043899"/>
+        <c:axId val="1353257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2436,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4673402"/>
+        <c:crossAx val="4940504"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2339,12 +2659,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="3644818"/>
-        <c:axId val="2044325"/>
-        <c:axId val="5768662"/>
+        <c:axId val="15766561"/>
+        <c:axId val="6053178"/>
+        <c:axId val="2025251"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="3644818"/>
+        <c:axId val="15766561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2371,7 +2691,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044325"/>
+        <c:crossAx val="6053178"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +2700,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044325"/>
+        <c:axId val="6053178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,12 +2721,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3644818"/>
+        <c:crossAx val="15766561"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="5768662"/>
+        <c:axId val="2025251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2747,529 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044325"/>
+        <c:crossAx val="6053178"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Comunidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos contactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flickr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flickr'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>-9781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># contactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flickr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flickr'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9876</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="10889920"/>
+        <c:axId val="8327261"/>
+        <c:axId val="8635189"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="10889920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8327261"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8327261"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10889920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="8635189"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8327261"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Interactividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Visitas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flickr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flickr'!$C$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Comentarios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flickr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flickr'!$C$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Favorios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flickr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flickr'!$C$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="9087109"/>
+        <c:axId val="5361159"/>
+        <c:axId val="12121698"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="9087109"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5361159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5361159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9087109"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="12121698"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5361159"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2835,6 +3677,167 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="item_2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="item_2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="item_2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -4895,4 +5898,665 @@
   <pageSetup orientation="landscape" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.68988764044944"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE BLOG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Comunidad</t>
+        </is>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="16" t="inlineStr">
+        <is>
+          <t># nuevos contactos</t>
+        </is>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-9781</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t># contactos</t>
+        </is>
+      </c>
+      <c r="C9" s="16">
+        <v>9876</v>
+      </c>
+      <c r="D9" s="16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>Interactividad</t>
+        </is>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="16" t="inlineStr">
+        <is>
+          <t># Visitas</t>
+        </is>
+      </c>
+      <c r="C11" s="16">
+        <v>978</v>
+      </c>
+      <c r="D11" s="16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="16" t="inlineStr">
+        <is>
+          <t># Comentarios</t>
+        </is>
+      </c>
+      <c r="C12" s="16">
+        <v>768</v>
+      </c>
+      <c r="D12" s="16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="16" t="inlineStr">
+        <is>
+          <t># Favoritos</t>
+        </is>
+      </c>
+      <c r="C13" s="16">
+        <v>768</v>
+      </c>
+      <c r="D13" s="16">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="16" t="inlineStr">
+        <is>
+          <t>Inversion Agencia</t>
+        </is>
+      </c>
+      <c r="C15" s="16">
+        <v>978.0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>6798.0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="16" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C16" s="16">
+        <v>687.0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>6987.0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="16" t="inlineStr">
+        <is>
+          <t>Inversion anuncios</t>
+        </is>
+      </c>
+      <c r="C17" s="16">
+        <v>9687.0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>6789.0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="16" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C18" s="16">
+        <v>11352.0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>20574.0</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Comentario para la Tabla de Flickr</t>
+        </is>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS BLOG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Comunidad Flickr</t>
+        </is>
+      </c>
+    </row>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interacciones Flickr</t>
+        </is>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Inversion Flickr</t>
+        </is>
+      </c>
+    </row>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164">
+      <c r="A164" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B164" s="13" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Flickr 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="192"/>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen Prueba Flickr 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206">
+      <c r="A206" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B206" s="13" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Flickr 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="234"/>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen Prueba Flickr 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -6,6 +6,8 @@
     <sheet name="Facebook" sheetId="1" r:id="rId1"/>
     <sheet name="Blog" sheetId="2" r:id="rId2"/>
     <sheet name="Flickr" sheetId="3" r:id="rId3"/>
+    <sheet name="Foursquare" sheetId="4" r:id="rId4"/>
+    <sheet name="Google+" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -16,7 +18,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="21">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -91,8 +93,54 @@
       <sz val="11"/>
       <family val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +177,28 @@
         <fgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border/>
     <border>
       <left style="thin">
@@ -272,11 +340,95 @@
         <color rgb="#00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -294,6 +446,16 @@
     <xf borderId="8" numFmtId="0" fontId="10" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="9" numFmtId="0" fontId="11" fillId="7" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="10" numFmtId="0" fontId="12" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="13" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="11" numFmtId="0" fontId="14" fillId="8" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="12" numFmtId="0" fontId="15" fillId="9" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="13" numFmtId="0" fontId="16" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="17" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="14" numFmtId="0" fontId="18" fillId="10" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="15" numFmtId="0" fontId="19" fillId="11" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="16" numFmtId="0" fontId="20" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -494,12 +656,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="14829237"/>
-        <c:axId val="10455957"/>
-        <c:axId val="14255773"/>
+        <c:axId val="3053057"/>
+        <c:axId val="13948330"/>
+        <c:axId val="14921799"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="14829237"/>
+        <c:axId val="3053057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +688,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10455957"/>
+        <c:crossAx val="13948330"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +697,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10455957"/>
+        <c:axId val="13948330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,12 +718,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14829237"/>
+        <c:crossAx val="3053057"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="14255773"/>
+        <c:axId val="14921799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +744,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10455957"/>
+        <c:crossAx val="13948330"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -733,12 +895,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="979272"/>
-        <c:axId val="4068479"/>
-        <c:axId val="2087439"/>
+        <c:axId val="2762234"/>
+        <c:axId val="10368096"/>
+        <c:axId val="332068"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="979272"/>
+        <c:axId val="2762234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +927,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4068479"/>
+        <c:crossAx val="10368096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -774,7 +936,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4068479"/>
+        <c:axId val="10368096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,12 +957,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="979272"/>
+        <c:crossAx val="2762234"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2087439"/>
+        <c:axId val="332068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,7 +983,1246 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4068479"/>
+        <c:crossAx val="10368096"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Followers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Foursquare'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Foursquare'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Foursquare'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Foursquare'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="3502585"/>
+        <c:axId val="14589514"/>
+        <c:axId val="4067764"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="3502585"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14589514"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14589514"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3502585"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="4067764"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14589514"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Ofertas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># unlocks  total de ofertas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Foursquare'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Foursquare'!$C$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># visitas total de las ofertas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Foursquare'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Foursquare'!$C$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="10880192"/>
+        <c:axId val="7792959"/>
+        <c:axId val="4559485"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="10880192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7792959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7792959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10880192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="4559485"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7792959"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Comunidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos contactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Google+'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google+'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># contactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Google+'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google+'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="3148857"/>
+        <c:axId val="1440246"/>
+        <c:axId val="12421718"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="3148857"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440246"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1440246"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3148857"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="12421718"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440246"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Interactividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(+1s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Google+'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google+'!$C$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compartir Contenido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Google+'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google+'!$C$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>9876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Interacciones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Google+'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google+'!$C$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>10854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="8101185"/>
+        <c:axId val="11727768"/>
+        <c:axId val="5541768"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="8101185"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11727768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11727768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8101185"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="5541768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11727768"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Inversion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos contactos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Google+'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google+'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Google+'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google+'!$C$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>14385.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>20421.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="6186273"/>
+        <c:axId val="4419120"/>
+        <c:axId val="12414217"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="6186273"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4419120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4419120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6186273"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="12414217"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4419120"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1034,12 +2435,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11952602"/>
-        <c:axId val="15031624"/>
-        <c:axId val="9719783"/>
+        <c:axId val="9749568"/>
+        <c:axId val="13254927"/>
+        <c:axId val="1246064"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="11952602"/>
+        <c:axId val="9749568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +2467,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15031624"/>
+        <c:crossAx val="13254927"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +2476,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15031624"/>
+        <c:axId val="13254927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,12 +2497,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11952602"/>
+        <c:crossAx val="9749568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="9719783"/>
+        <c:axId val="1246064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +2523,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15031624"/>
+        <c:crossAx val="13254927"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1335,12 +2736,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="754670"/>
-        <c:axId val="7988881"/>
-        <c:axId val="1043027"/>
+        <c:axId val="7375766"/>
+        <c:axId val="11882248"/>
+        <c:axId val="10108274"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="754670"/>
+        <c:axId val="7375766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +2768,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7988881"/>
+        <c:crossAx val="11882248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1376,7 +2777,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7988881"/>
+        <c:axId val="11882248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,12 +2798,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="754670"/>
+        <c:crossAx val="7375766"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1043027"/>
+        <c:axId val="10108274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +2824,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7988881"/>
+        <c:crossAx val="11882248"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1586,12 +2987,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2182506"/>
-        <c:axId val="11235310"/>
-        <c:axId val="13918763"/>
+        <c:axId val="11938197"/>
+        <c:axId val="13557172"/>
+        <c:axId val="10501050"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2182506"/>
+        <c:axId val="11938197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +3019,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11235310"/>
+        <c:crossAx val="13557172"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1627,7 +3028,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11235310"/>
+        <c:axId val="13557172"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,12 +3049,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2182506"/>
+        <c:crossAx val="11938197"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="13918763"/>
+        <c:axId val="10501050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +3075,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11235310"/>
+        <c:crossAx val="13557172"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2037,12 +3438,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15573726"/>
-        <c:axId val="7412841"/>
-        <c:axId val="13983815"/>
+        <c:axId val="11803452"/>
+        <c:axId val="16055833"/>
+        <c:axId val="62209"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15573726"/>
+        <c:axId val="11803452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +3470,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7412841"/>
+        <c:crossAx val="16055833"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2078,7 +3479,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7412841"/>
+        <c:axId val="16055833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,12 +3500,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15573726"/>
+        <c:crossAx val="11803452"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="13983815"/>
+        <c:axId val="62209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +3526,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7412841"/>
+        <c:crossAx val="16055833"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2348,12 +3749,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="9967974"/>
-        <c:axId val="4940504"/>
-        <c:axId val="1353257"/>
+        <c:axId val="6644333"/>
+        <c:axId val="12909329"/>
+        <c:axId val="14081562"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="9967974"/>
+        <c:axId val="6644333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +3781,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4940504"/>
+        <c:crossAx val="12909329"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2389,7 +3790,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4940504"/>
+        <c:axId val="12909329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,12 +3811,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9967974"/>
+        <c:crossAx val="6644333"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1353257"/>
+        <c:axId val="14081562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,7 +3837,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4940504"/>
+        <c:crossAx val="12909329"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2659,12 +4060,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15766561"/>
-        <c:axId val="6053178"/>
-        <c:axId val="2025251"/>
+        <c:axId val="1386807"/>
+        <c:axId val="743170"/>
+        <c:axId val="1933985"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15766561"/>
+        <c:axId val="1386807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,7 +4092,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6053178"/>
+        <c:crossAx val="743170"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +4101,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6053178"/>
+        <c:axId val="743170"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,12 +4122,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15766561"/>
+        <c:crossAx val="1386807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2025251"/>
+        <c:axId val="1933985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +4148,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6053178"/>
+        <c:crossAx val="743170"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2898,12 +4299,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="10889920"/>
-        <c:axId val="8327261"/>
-        <c:axId val="8635189"/>
+        <c:axId val="8074145"/>
+        <c:axId val="3823222"/>
+        <c:axId val="7565917"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="10889920"/>
+        <c:axId val="8074145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +4331,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8327261"/>
+        <c:crossAx val="3823222"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2939,7 +4340,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8327261"/>
+        <c:axId val="3823222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,12 +4361,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10889920"/>
+        <c:crossAx val="8074145"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="8635189"/>
+        <c:axId val="7565917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +4387,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8327261"/>
+        <c:crossAx val="3823222"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3181,12 +4582,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="9087109"/>
-        <c:axId val="5361159"/>
-        <c:axId val="12121698"/>
+        <c:axId val="15380993"/>
+        <c:axId val="12908585"/>
+        <c:axId val="13495168"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="9087109"/>
+        <c:axId val="15380993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +4614,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5361159"/>
+        <c:crossAx val="12908585"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3222,7 +4623,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5361159"/>
+        <c:axId val="12908585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,12 +4644,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9087109"/>
+        <c:crossAx val="15380993"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="12121698"/>
+        <c:axId val="13495168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +4670,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5361159"/>
+        <c:crossAx val="12908585"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3838,6 +5239,298 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="item_3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="item_3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="item_4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="item_4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="item_4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -5926,7 +7619,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PAGINA DE BLOG</t>
+          <t>PAGINA FLICKR</t>
         </is>
       </c>
     </row>
@@ -6207,7 +7900,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>GRAFICOS BLOG</t>
+          <t>GRAFICOS FLICKR</t>
         </is>
       </c>
     </row>
@@ -6559,4 +8252,1188 @@
   <pageSetup orientation="landscape" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.49887640449438"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE FOURSQUARE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Comunidad</t>
+        </is>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="21" t="inlineStr">
+        <is>
+          <t># nuevos followers</t>
+        </is>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t># followers</t>
+        </is>
+      </c>
+      <c r="C9" s="21">
+        <v>85</v>
+      </c>
+      <c r="D9" s="21">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="21" t="inlineStr">
+        <is>
+          <t># unlocks total de las ofertas</t>
+        </is>
+      </c>
+      <c r="C10" s="21">
+        <v>867</v>
+      </c>
+      <c r="D10" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t># visitas total de las ofertas</t>
+        </is>
+      </c>
+      <c r="C11" s="21">
+        <v>58</v>
+      </c>
+      <c r="D11" s="21">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Tabla Foursquare</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS FOURSQUARE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Followers Foursquare</t>
+        </is>
+      </c>
+    </row>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="110"/>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Ofertas Foursquare</t>
+        </is>
+      </c>
+    </row>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126">
+      <c r="A126" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B126" s="18" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Foursquare 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="154"/>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen Prueba 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168">
+      <c r="A168" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B168" s="18" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Foursquare 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="196"/>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen Prueba Foursquare 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.39887640449438"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.68988764044944"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE GOOGLE+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="25" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="25" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="24" t="inlineStr">
+        <is>
+          <t>Comunidad</t>
+        </is>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="26" t="inlineStr">
+        <is>
+          <t># nuevos followers</t>
+        </is>
+      </c>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="26" t="inlineStr">
+        <is>
+          <t># followers</t>
+        </is>
+      </c>
+      <c r="C9" s="26">
+        <v>76</v>
+      </c>
+      <c r="D9" s="26">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="26" t="inlineStr">
+        <is>
+          <t>% crecimiento seguidores</t>
+        </is>
+      </c>
+      <c r="C10" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>911.842</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="24" t="inlineStr">
+        <is>
+          <t>Interactividad</t>
+        </is>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="26" t="inlineStr">
+        <is>
+          <t>(+1s)</t>
+        </is>
+      </c>
+      <c r="C12" s="26">
+        <v>96</v>
+      </c>
+      <c r="D12" s="26">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="26" t="inlineStr">
+        <is>
+          <t>Compartir contenido</t>
+        </is>
+      </c>
+      <c r="C13" s="26">
+        <v>798</v>
+      </c>
+      <c r="D13" s="26">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="26" t="inlineStr">
+        <is>
+          <t>Total de Interacciones</t>
+        </is>
+      </c>
+      <c r="C14" s="26">
+        <v>894</v>
+      </c>
+      <c r="D14" s="26">
+        <v>10854</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="26" t="inlineStr">
+        <is>
+          <t>% cambio en interacciones</t>
+        </is>
+      </c>
+      <c r="C15" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1114.094</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="24" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="26" t="inlineStr">
+        <is>
+          <t>Inversion Agencia</t>
+        </is>
+      </c>
+      <c r="C17" s="26">
+        <v>6798.0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>9687.0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="26" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C18" s="26">
+        <v>798.0</v>
+      </c>
+      <c r="D18" s="26">
+        <v>9867.0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="26" t="inlineStr">
+        <is>
+          <t>Inversion anuncios</t>
+        </is>
+      </c>
+      <c r="C19" s="26">
+        <v>6789.0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>867.0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C20" s="26">
+        <v>14385.0</v>
+      </c>
+      <c r="D20" s="26">
+        <v>20421.0</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Comentario para la Tabla Google+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS GOOGLE+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="65"/>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Comunidad Google+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="105"/>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interacciones Google+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="147"/>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Inversion Google+</t>
+        </is>
+      </c>
+    </row>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163">
+      <c r="A163" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B163" s="23" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Google+ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="191"/>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Con la imagen de Google+</t>
+        </is>
+      </c>
+    </row>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205">
+      <c r="A205" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B205" s="23" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Google+ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232">
+      <c r="A232" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="233"/>
+    <row r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen Prueba Google+ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -8,6 +8,7 @@
     <sheet name="Flickr" sheetId="3" r:id="rId3"/>
     <sheet name="Foursquare" sheetId="4" r:id="rId4"/>
     <sheet name="Google+" sheetId="5" r:id="rId5"/>
+    <sheet name="Linkedin" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -18,7 +19,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -139,8 +140,31 @@
       <sz val="11"/>
       <family val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +221,18 @@
         <fgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border/>
     <border>
       <left style="thin">
@@ -424,11 +458,53 @@
         <color rgb="#00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -456,6 +532,11 @@
     <xf borderId="14" numFmtId="0" fontId="18" fillId="10" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="15" numFmtId="0" fontId="19" fillId="11" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="16" numFmtId="0" fontId="20" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="21" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="17" numFmtId="0" fontId="22" fillId="12" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="18" numFmtId="0" fontId="23" fillId="13" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="19" numFmtId="0" fontId="24" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -656,12 +737,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="3053057"/>
-        <c:axId val="13948330"/>
-        <c:axId val="14921799"/>
+        <c:axId val="14990304"/>
+        <c:axId val="6024392"/>
+        <c:axId val="1082410"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="3053057"/>
+        <c:axId val="14990304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +769,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13948330"/>
+        <c:crossAx val="6024392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -697,7 +778,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13948330"/>
+        <c:axId val="6024392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,12 +799,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3053057"/>
+        <c:crossAx val="14990304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="14921799"/>
+        <c:axId val="1082410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +825,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13948330"/>
+        <c:crossAx val="6024392"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -895,12 +976,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2762234"/>
-        <c:axId val="10368096"/>
-        <c:axId val="332068"/>
+        <c:axId val="12705442"/>
+        <c:axId val="10201735"/>
+        <c:axId val="11950954"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2762234"/>
+        <c:axId val="12705442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +1008,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10368096"/>
+        <c:crossAx val="10201735"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -936,7 +1017,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10368096"/>
+        <c:axId val="10201735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,12 +1038,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2762234"/>
+        <c:crossAx val="12705442"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="332068"/>
+        <c:axId val="11950954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1064,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10368096"/>
+        <c:crossAx val="10201735"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1134,12 +1215,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="3502585"/>
-        <c:axId val="14589514"/>
-        <c:axId val="4067764"/>
+        <c:axId val="16503945"/>
+        <c:axId val="16684898"/>
+        <c:axId val="10837144"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="3502585"/>
+        <c:axId val="16503945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1247,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14589514"/>
+        <c:crossAx val="16684898"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1175,7 +1256,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14589514"/>
+        <c:axId val="16684898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,12 +1277,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3502585"/>
+        <c:crossAx val="16503945"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="4067764"/>
+        <c:axId val="10837144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1303,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14589514"/>
+        <c:crossAx val="16684898"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1373,12 +1454,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="10880192"/>
-        <c:axId val="7792959"/>
-        <c:axId val="4559485"/>
+        <c:axId val="4139222"/>
+        <c:axId val="13742816"/>
+        <c:axId val="12835059"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="10880192"/>
+        <c:axId val="4139222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1486,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7792959"/>
+        <c:crossAx val="13742816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1414,7 +1495,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7792959"/>
+        <c:axId val="13742816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,12 +1516,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10880192"/>
+        <c:crossAx val="4139222"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="4559485"/>
+        <c:axId val="12835059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1542,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7792959"/>
+        <c:crossAx val="13742816"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1612,12 +1693,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="3148857"/>
-        <c:axId val="1440246"/>
-        <c:axId val="12421718"/>
+        <c:axId val="10810450"/>
+        <c:axId val="13357092"/>
+        <c:axId val="2715130"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="3148857"/>
+        <c:axId val="10810450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1725,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440246"/>
+        <c:crossAx val="13357092"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +1734,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1440246"/>
+        <c:axId val="13357092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,12 +1755,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3148857"/>
+        <c:crossAx val="10810450"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="12421718"/>
+        <c:axId val="2715130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1781,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440246"/>
+        <c:crossAx val="13357092"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1895,12 +1976,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="8101185"/>
-        <c:axId val="11727768"/>
-        <c:axId val="5541768"/>
+        <c:axId val="12408689"/>
+        <c:axId val="15547672"/>
+        <c:axId val="12274845"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="8101185"/>
+        <c:axId val="12408689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +2008,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11727768"/>
+        <c:crossAx val="15547672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1936,7 +2017,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11727768"/>
+        <c:axId val="15547672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,12 +2038,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8101185"/>
+        <c:crossAx val="12408689"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="5541768"/>
+        <c:axId val="12274845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,7 +2064,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11727768"/>
+        <c:crossAx val="15547672"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2134,12 +2215,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6186273"/>
-        <c:axId val="4419120"/>
-        <c:axId val="12414217"/>
+        <c:axId val="15836284"/>
+        <c:axId val="55619"/>
+        <c:axId val="1139464"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="6186273"/>
+        <c:axId val="15836284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2247,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4419120"/>
+        <c:crossAx val="55619"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2175,7 +2256,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4419120"/>
+        <c:axId val="55619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,12 +2277,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6186273"/>
+        <c:crossAx val="15836284"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="12414217"/>
+        <c:axId val="1139464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2303,1109 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4419120"/>
+        <c:crossAx val="55619"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Seguidores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Nuevos Followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>-7859</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>-7789</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>-7778</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>-7775</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>-319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7865</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>7546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="5059540"/>
+        <c:axId val="1822846"/>
+        <c:axId val="13805411"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="5059540"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822846"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1822846"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5059540"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="13805411"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822846"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Interactividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resumen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>8675</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>56785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empleo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>6857</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9876</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Productos y Servicios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>6587</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impresiones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5876</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8675</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6785</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9786</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>9876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clicks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>8765</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% interest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5867.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6785.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>7896.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>8079.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6987.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recomendacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>7689</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>7089</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compartidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linkedin'!$C$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03 Nov - 03 Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04 Nov - 04 Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05 Nov - 05 Nov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06 Nov - 06 Nov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07 Nov - 07 Nov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08 Nov - 08 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linkedin'!$C$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>8567</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="14942875"/>
+        <c:axId val="921629"/>
+        <c:axId val="12248955"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="14942875"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921629"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="921629"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14942875"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="12248955"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921629"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2435,12 +3618,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="9749568"/>
-        <c:axId val="13254927"/>
-        <c:axId val="1246064"/>
+        <c:axId val="7081364"/>
+        <c:axId val="13969760"/>
+        <c:axId val="3487695"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="9749568"/>
+        <c:axId val="7081364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +3650,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13254927"/>
+        <c:crossAx val="13969760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2476,7 +3659,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13254927"/>
+        <c:axId val="13969760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,12 +3680,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9749568"/>
+        <c:crossAx val="7081364"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1246064"/>
+        <c:axId val="3487695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +3706,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13254927"/>
+        <c:crossAx val="13969760"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2736,12 +3919,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="7375766"/>
-        <c:axId val="11882248"/>
-        <c:axId val="10108274"/>
+        <c:axId val="12477109"/>
+        <c:axId val="1128600"/>
+        <c:axId val="13416820"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="7375766"/>
+        <c:axId val="12477109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,7 +3951,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11882248"/>
+        <c:crossAx val="1128600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2777,7 +3960,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11882248"/>
+        <c:axId val="1128600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2798,12 +3981,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7375766"/>
+        <c:crossAx val="12477109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="10108274"/>
+        <c:axId val="13416820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +4007,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11882248"/>
+        <c:crossAx val="1128600"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2987,12 +4170,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11938197"/>
-        <c:axId val="13557172"/>
-        <c:axId val="10501050"/>
+        <c:axId val="7889345"/>
+        <c:axId val="14428319"/>
+        <c:axId val="3368787"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="11938197"/>
+        <c:axId val="7889345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +4202,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13557172"/>
+        <c:crossAx val="14428319"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3028,7 +4211,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13557172"/>
+        <c:axId val="14428319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,12 +4232,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11938197"/>
+        <c:crossAx val="7889345"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="10501050"/>
+        <c:axId val="3368787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +4258,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13557172"/>
+        <c:crossAx val="14428319"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3438,12 +4621,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11803452"/>
-        <c:axId val="16055833"/>
-        <c:axId val="62209"/>
+        <c:axId val="2572852"/>
+        <c:axId val="2064707"/>
+        <c:axId val="373087"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="11803452"/>
+        <c:axId val="2572852"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,7 +4653,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16055833"/>
+        <c:crossAx val="2064707"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3479,7 +4662,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16055833"/>
+        <c:axId val="2064707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,12 +4683,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11803452"/>
+        <c:crossAx val="2572852"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="62209"/>
+        <c:axId val="373087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,7 +4709,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16055833"/>
+        <c:crossAx val="2064707"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3749,12 +4932,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6644333"/>
-        <c:axId val="12909329"/>
-        <c:axId val="14081562"/>
+        <c:axId val="9398512"/>
+        <c:axId val="2432364"/>
+        <c:axId val="9942821"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="6644333"/>
+        <c:axId val="9398512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +4964,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12909329"/>
+        <c:crossAx val="2432364"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3790,7 +4973,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12909329"/>
+        <c:axId val="2432364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,12 +4994,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6644333"/>
+        <c:crossAx val="9398512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="14081562"/>
+        <c:axId val="9942821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +5020,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12909329"/>
+        <c:crossAx val="2432364"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4060,12 +5243,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1386807"/>
-        <c:axId val="743170"/>
-        <c:axId val="1933985"/>
+        <c:axId val="8058719"/>
+        <c:axId val="3879156"/>
+        <c:axId val="8760710"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="1386807"/>
+        <c:axId val="8058719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +5275,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743170"/>
+        <c:crossAx val="3879156"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4101,7 +5284,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="743170"/>
+        <c:axId val="3879156"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4122,12 +5305,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1386807"/>
+        <c:crossAx val="8058719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1933985"/>
+        <c:axId val="8760710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4148,7 +5331,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743170"/>
+        <c:crossAx val="3879156"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4299,12 +5482,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="8074145"/>
-        <c:axId val="3823222"/>
-        <c:axId val="7565917"/>
+        <c:axId val="10834041"/>
+        <c:axId val="8103056"/>
+        <c:axId val="3057642"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="8074145"/>
+        <c:axId val="10834041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,7 +5514,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3823222"/>
+        <c:crossAx val="8103056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4340,7 +5523,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3823222"/>
+        <c:axId val="8103056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,12 +5544,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8074145"/>
+        <c:crossAx val="10834041"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="7565917"/>
+        <c:axId val="3057642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4387,7 +5570,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3823222"/>
+        <c:crossAx val="8103056"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4582,12 +5765,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15380993"/>
-        <c:axId val="12908585"/>
-        <c:axId val="13495168"/>
+        <c:axId val="4043139"/>
+        <c:axId val="8450184"/>
+        <c:axId val="6042507"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15380993"/>
+        <c:axId val="4043139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4614,7 +5797,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12908585"/>
+        <c:crossAx val="8450184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4623,7 +5806,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12908585"/>
+        <c:axId val="8450184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4644,12 +5827,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15380993"/>
+        <c:crossAx val="4043139"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="13495168"/>
+        <c:axId val="6042507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4670,7 +5853,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12908585"/>
+        <c:crossAx val="8450184"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -5531,6 +6714,137 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="item_5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="item_5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -9436,4 +10750,1058 @@
   <pageSetup orientation="landscape" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.198876404494385"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.68988764044944"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE LINKEDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="30" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="30" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+      <c r="E6" s="30" t="inlineStr">
+        <is>
+          <t>03 Nov - 03 Nov</t>
+        </is>
+      </c>
+      <c r="F6" s="30" t="inlineStr">
+        <is>
+          <t>04 Nov - 04 Nov</t>
+        </is>
+      </c>
+      <c r="G6" s="30" t="inlineStr">
+        <is>
+          <t>05 Nov - 05 Nov</t>
+        </is>
+      </c>
+      <c r="H6" s="30" t="inlineStr">
+        <is>
+          <t>06 Nov - 06 Nov</t>
+        </is>
+      </c>
+      <c r="I6" s="30" t="inlineStr">
+        <is>
+          <t>07 Nov - 07 Nov</t>
+        </is>
+      </c>
+      <c r="J6" s="30" t="inlineStr">
+        <is>
+          <t>08 Nov - 08 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="29" t="inlineStr">
+        <is>
+          <t>Comunidad</t>
+        </is>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="31" t="inlineStr">
+        <is>
+          <t># Nuevos Followers</t>
+        </is>
+      </c>
+      <c r="C8" s="31">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
+        <v>10</v>
+      </c>
+      <c r="E8" s="31">
+        <v>90</v>
+      </c>
+      <c r="F8" s="31">
+        <v>-7859</v>
+      </c>
+      <c r="G8" s="31">
+        <v>-7789</v>
+      </c>
+      <c r="H8" s="31">
+        <v>-7778</v>
+      </c>
+      <c r="I8" s="31">
+        <v>-7775</v>
+      </c>
+      <c r="J8" s="31">
+        <v>-319</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="31" t="inlineStr">
+        <is>
+          <t># Followers</t>
+        </is>
+      </c>
+      <c r="C9" s="31">
+        <v>7865</v>
+      </c>
+      <c r="D9" s="31">
+        <v>100</v>
+      </c>
+      <c r="E9" s="31">
+        <v>190</v>
+      </c>
+      <c r="F9" s="31">
+        <v>6</v>
+      </c>
+      <c r="G9" s="31">
+        <v>76</v>
+      </c>
+      <c r="H9" s="31">
+        <v>87</v>
+      </c>
+      <c r="I9" s="31">
+        <v>90</v>
+      </c>
+      <c r="J9" s="31">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="31" t="inlineStr">
+        <is>
+          <t>% Crecimiento</t>
+        </is>
+      </c>
+      <c r="C10" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.127</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1.144</v>
+      </c>
+      <c r="F10" s="31">
+        <v>-99.924</v>
+      </c>
+      <c r="G10" s="31">
+        <v>-99.034</v>
+      </c>
+      <c r="H10" s="31">
+        <v>-98.894</v>
+      </c>
+      <c r="I10" s="31">
+        <v>-98.856</v>
+      </c>
+      <c r="J10" s="31">
+        <v>-4.056</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="29" t="inlineStr">
+        <is>
+          <t>Interactividad</t>
+        </is>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="31" t="inlineStr">
+        <is>
+          <t># Visualizaciones de paginas</t>
+        </is>
+      </c>
+      <c r="C12" s="31">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="31">
+        <v>6</v>
+      </c>
+      <c r="E12" s="31">
+        <v>13521</v>
+      </c>
+      <c r="F12" s="31">
+        <v>9447</v>
+      </c>
+      <c r="G12" s="31">
+        <v>11730</v>
+      </c>
+      <c r="H12" s="31">
+        <v>1071</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <v>57728</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="31" t="inlineStr">
+        <is>
+          <t>Resumen</t>
+        </is>
+      </c>
+      <c r="C13" s="31">
+        <v>65</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
+        <v>77</v>
+      </c>
+      <c r="F13" s="31">
+        <v>8675</v>
+      </c>
+      <c r="G13" s="31">
+        <v>978</v>
+      </c>
+      <c r="H13" s="31">
+        <v>87</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>56785</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="31" t="inlineStr">
+        <is>
+          <t>Empleo</t>
+        </is>
+      </c>
+      <c r="C14" s="31">
+        <v>867</v>
+      </c>
+      <c r="D14" s="31">
+        <v>2</v>
+      </c>
+      <c r="E14" s="31">
+        <v>6857</v>
+      </c>
+      <c r="F14" s="31">
+        <v>85</v>
+      </c>
+      <c r="G14" s="31">
+        <v>9876</v>
+      </c>
+      <c r="H14" s="31">
+        <v>87</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="31" t="inlineStr">
+        <is>
+          <t>Productos y Servicios</t>
+        </is>
+      </c>
+      <c r="C15" s="31">
+        <v>568</v>
+      </c>
+      <c r="D15" s="31">
+        <v>3</v>
+      </c>
+      <c r="E15" s="31">
+        <v>6587</v>
+      </c>
+      <c r="F15" s="31">
+        <v>687</v>
+      </c>
+      <c r="G15" s="31">
+        <v>876</v>
+      </c>
+      <c r="H15" s="31">
+        <v>897</v>
+      </c>
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="31" t="inlineStr">
+        <is>
+          <t>Impresiones</t>
+        </is>
+      </c>
+      <c r="C16" s="31">
+        <v>5876</v>
+      </c>
+      <c r="D16" s="31">
+        <v>8</v>
+      </c>
+      <c r="E16" s="31">
+        <v>8675</v>
+      </c>
+      <c r="F16" s="31">
+        <v>6785</v>
+      </c>
+      <c r="G16" s="31">
+        <v>9786</v>
+      </c>
+      <c r="H16" s="31">
+        <v>897</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="31" t="inlineStr">
+        <is>
+          <t>Clicks</t>
+        </is>
+      </c>
+      <c r="C17" s="31">
+        <v>576</v>
+      </c>
+      <c r="D17" s="31">
+        <v>576</v>
+      </c>
+      <c r="E17" s="31">
+        <v>586</v>
+      </c>
+      <c r="F17" s="31">
+        <v>8765</v>
+      </c>
+      <c r="G17" s="31">
+        <v>879</v>
+      </c>
+      <c r="H17" s="31">
+        <v>897</v>
+      </c>
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="31" t="inlineStr">
+        <is>
+          <t>% de interes</t>
+        </is>
+      </c>
+      <c r="C18" s="31">
+        <v>5867.0</v>
+      </c>
+      <c r="D18" s="31">
+        <v>85.0</v>
+      </c>
+      <c r="E18" s="31">
+        <v>8.0</v>
+      </c>
+      <c r="F18" s="31">
+        <v>6785.0</v>
+      </c>
+      <c r="G18" s="31">
+        <v>7896.0</v>
+      </c>
+      <c r="H18" s="31">
+        <v>8079.0</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="31">
+        <v>6987.0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="31" t="inlineStr">
+        <is>
+          <t>Recomendacion</t>
+        </is>
+      </c>
+      <c r="C19" s="31">
+        <v>58</v>
+      </c>
+      <c r="D19" s="31">
+        <v>6</v>
+      </c>
+      <c r="E19" s="31">
+        <v>8</v>
+      </c>
+      <c r="F19" s="31">
+        <v>7685</v>
+      </c>
+      <c r="G19" s="31">
+        <v>7689</v>
+      </c>
+      <c r="H19" s="31">
+        <v>7089</v>
+      </c>
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <v>6879</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="31" t="inlineStr">
+        <is>
+          <t>Compartidos</t>
+        </is>
+      </c>
+      <c r="C20" s="31">
+        <v>675</v>
+      </c>
+      <c r="D20" s="31">
+        <v>678</v>
+      </c>
+      <c r="E20" s="31">
+        <v>856</v>
+      </c>
+      <c r="F20" s="31">
+        <v>8567</v>
+      </c>
+      <c r="G20" s="31">
+        <v>78</v>
+      </c>
+      <c r="H20" s="31">
+        <v>879</v>
+      </c>
+      <c r="I20" s="31">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="20">
+      <c r="A21" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="29" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" customHeight="1" ht="20">
+      <c r="A22" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="31" t="inlineStr">
+        <is>
+          <t>Inversion Agencia</t>
+        </is>
+      </c>
+      <c r="C22" s="31">
+        <v>6875.0</v>
+      </c>
+      <c r="D22" s="31">
+        <v>976.0</v>
+      </c>
+      <c r="E22" s="31">
+        <v>856.0</v>
+      </c>
+      <c r="F22" s="31">
+        <v>6785.0</v>
+      </c>
+      <c r="G22" s="31">
+        <v>897.0</v>
+      </c>
+      <c r="H22" s="31">
+        <v>78.0</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="31">
+        <v>78796.0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="20">
+      <c r="A23" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="31" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C23" s="31">
+        <v>8675.0</v>
+      </c>
+      <c r="D23" s="31">
+        <v>5678.0</v>
+      </c>
+      <c r="E23" s="31">
+        <v>898.0</v>
+      </c>
+      <c r="F23" s="31">
+        <v>67.0</v>
+      </c>
+      <c r="G23" s="31">
+        <v>68.0</v>
+      </c>
+      <c r="H23" s="31">
+        <v>6798.0</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="31">
+        <v>789.0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="20">
+      <c r="A24" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="31" t="inlineStr">
+        <is>
+          <t>Inversion anuncios</t>
+        </is>
+      </c>
+      <c r="C24" s="31">
+        <v>868.0</v>
+      </c>
+      <c r="D24" s="31">
+        <v>85.0</v>
+      </c>
+      <c r="E24" s="31">
+        <v>687.0</v>
+      </c>
+      <c r="F24" s="31">
+        <v>8765.0</v>
+      </c>
+      <c r="G24" s="31">
+        <v>876.0</v>
+      </c>
+      <c r="H24" s="31">
+        <v>98.0</v>
+      </c>
+      <c r="I24" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="31">
+        <v>768.0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="20">
+      <c r="A25" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="31" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C25" s="31">
+        <v>16418.0</v>
+      </c>
+      <c r="D25" s="31">
+        <v>6739.0</v>
+      </c>
+      <c r="E25" s="31">
+        <v>2441.0</v>
+      </c>
+      <c r="F25" s="31">
+        <v>15617.0</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1841.0</v>
+      </c>
+      <c r="H25" s="31">
+        <v>6974.0</v>
+      </c>
+      <c r="I25" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="31">
+        <v>80353.0</v>
+      </c>
+    </row>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Comentario para la tabla de Linkedin</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS LINKEDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Seguidores Linkedin</t>
+        </is>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="102"/>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interacciones Linkedin</t>
+        </is>
+      </c>
+    </row>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118">
+      <c r="A118" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B118" s="28" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Linkedin 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="146"/>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>Comentario 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160">
+      <c r="A160" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B160" s="28" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Linkedin 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="188"/>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>Comentario 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Foursquare" sheetId="4" r:id="rId4"/>
     <sheet name="Google+" sheetId="5" r:id="rId5"/>
     <sheet name="Linkedin" sheetId="6" r:id="rId6"/>
+    <sheet name="Pinterest" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -19,7 +20,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -163,8 +164,31 @@
       <sz val="11"/>
       <family val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +255,18 @@
         <fgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border/>
     <border>
       <left style="thin">
@@ -500,11 +534,53 @@
         <color rgb="#00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -537,6 +613,11 @@
     <xf borderId="17" numFmtId="0" fontId="22" fillId="12" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="18" numFmtId="0" fontId="23" fillId="13" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="19" numFmtId="0" fontId="24" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="25" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="20" numFmtId="0" fontId="26" fillId="14" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="21" numFmtId="0" fontId="27" fillId="15" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="22" numFmtId="0" fontId="28" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -737,12 +818,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="14990304"/>
-        <c:axId val="6024392"/>
-        <c:axId val="1082410"/>
+        <c:axId val="11757730"/>
+        <c:axId val="11382534"/>
+        <c:axId val="1124757"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="14990304"/>
+        <c:axId val="11757730"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +850,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6024392"/>
+        <c:crossAx val="11382534"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -778,7 +859,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6024392"/>
+        <c:axId val="11382534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,12 +880,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14990304"/>
+        <c:crossAx val="11757730"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1082410"/>
+        <c:axId val="1124757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +906,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6024392"/>
+        <c:crossAx val="11382534"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -976,12 +1057,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="12705442"/>
-        <c:axId val="10201735"/>
-        <c:axId val="11950954"/>
+        <c:axId val="6911752"/>
+        <c:axId val="15429964"/>
+        <c:axId val="5308118"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="12705442"/>
+        <c:axId val="6911752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1089,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10201735"/>
+        <c:crossAx val="15429964"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1017,7 +1098,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10201735"/>
+        <c:axId val="15429964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,12 +1119,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12705442"/>
+        <c:crossAx val="6911752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="11950954"/>
+        <c:axId val="5308118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1145,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10201735"/>
+        <c:crossAx val="15429964"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1215,12 +1296,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="16503945"/>
-        <c:axId val="16684898"/>
-        <c:axId val="10837144"/>
+        <c:axId val="8659165"/>
+        <c:axId val="6180558"/>
+        <c:axId val="13710710"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="16503945"/>
+        <c:axId val="8659165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1328,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16684898"/>
+        <c:crossAx val="6180558"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1337,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16684898"/>
+        <c:axId val="6180558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,12 +1358,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16503945"/>
+        <c:crossAx val="8659165"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="10837144"/>
+        <c:axId val="13710710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1384,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16684898"/>
+        <c:crossAx val="6180558"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1454,12 +1535,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="4139222"/>
-        <c:axId val="13742816"/>
-        <c:axId val="12835059"/>
+        <c:axId val="11400920"/>
+        <c:axId val="1948933"/>
+        <c:axId val="7499258"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="4139222"/>
+        <c:axId val="11400920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1567,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13742816"/>
+        <c:crossAx val="1948933"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1576,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13742816"/>
+        <c:axId val="1948933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,12 +1597,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4139222"/>
+        <c:crossAx val="11400920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="12835059"/>
+        <c:axId val="7499258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1623,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13742816"/>
+        <c:crossAx val="1948933"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1693,12 +1774,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="10810450"/>
-        <c:axId val="13357092"/>
-        <c:axId val="2715130"/>
+        <c:axId val="10286499"/>
+        <c:axId val="6471670"/>
+        <c:axId val="3057640"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="10810450"/>
+        <c:axId val="10286499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1806,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13357092"/>
+        <c:crossAx val="6471670"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1734,7 +1815,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13357092"/>
+        <c:axId val="6471670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,12 +1836,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10810450"/>
+        <c:crossAx val="10286499"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2715130"/>
+        <c:axId val="3057640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1862,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13357092"/>
+        <c:crossAx val="6471670"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1976,12 +2057,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="12408689"/>
-        <c:axId val="15547672"/>
-        <c:axId val="12274845"/>
+        <c:axId val="15059431"/>
+        <c:axId val="6127190"/>
+        <c:axId val="543490"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="12408689"/>
+        <c:axId val="15059431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2089,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15547672"/>
+        <c:crossAx val="6127190"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2017,7 +2098,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15547672"/>
+        <c:axId val="6127190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,12 +2119,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12408689"/>
+        <c:crossAx val="15059431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="12274845"/>
+        <c:axId val="543490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,7 +2145,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15547672"/>
+        <c:crossAx val="6127190"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2215,12 +2296,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15836284"/>
-        <c:axId val="55619"/>
-        <c:axId val="1139464"/>
+        <c:axId val="15679521"/>
+        <c:axId val="2667042"/>
+        <c:axId val="5647200"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15836284"/>
+        <c:axId val="15679521"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2328,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55619"/>
+        <c:crossAx val="2667042"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2256,7 +2337,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55619"/>
+        <c:axId val="2667042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,12 +2358,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15836284"/>
+        <c:crossAx val="15679521"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1139464"/>
+        <c:axId val="5647200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2384,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55619"/>
+        <c:crossAx val="2667042"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2526,12 +2607,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="5059540"/>
-        <c:axId val="1822846"/>
-        <c:axId val="13805411"/>
+        <c:axId val="1742678"/>
+        <c:axId val="15959065"/>
+        <c:axId val="2289240"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="5059540"/>
+        <c:axId val="1742678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2639,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1822846"/>
+        <c:crossAx val="15959065"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2567,7 +2648,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1822846"/>
+        <c:axId val="15959065"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,12 +2669,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5059540"/>
+        <c:crossAx val="1742678"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="13805411"/>
+        <c:axId val="2289240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2695,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1822846"/>
+        <c:crossAx val="15959065"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3317,12 +3398,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="14942875"/>
-        <c:axId val="921629"/>
-        <c:axId val="12248955"/>
+        <c:axId val="573925"/>
+        <c:axId val="8315829"/>
+        <c:axId val="3577617"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="14942875"/>
+        <c:axId val="573925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3349,7 +3430,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="921629"/>
+        <c:crossAx val="8315829"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3358,7 +3439,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="921629"/>
+        <c:axId val="8315829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,12 +3460,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14942875"/>
+        <c:crossAx val="573925"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="12248955"/>
+        <c:axId val="3577617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,7 +3486,661 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="921629"/>
+        <c:crossAx val="8315829"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Comunidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Nuevos Followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>8689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>8765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># boards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># pins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6978</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="6676456"/>
+        <c:axId val="6687606"/>
+        <c:axId val="9672309"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="6676456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6687606"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6687606"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6676456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="9672309"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6687606"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Interactividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># liked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6978</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># repin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6798</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># comments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># community boards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8769</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="15367442"/>
+        <c:axId val="6136765"/>
+        <c:axId val="15051636"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="15367442"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6136765"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6136765"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15367442"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="15051636"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6136765"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3618,12 +4353,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="7081364"/>
-        <c:axId val="13969760"/>
-        <c:axId val="3487695"/>
+        <c:axId val="8788557"/>
+        <c:axId val="14597788"/>
+        <c:axId val="16710565"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="7081364"/>
+        <c:axId val="8788557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,7 +4385,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13969760"/>
+        <c:crossAx val="14597788"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3659,7 +4394,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13969760"/>
+        <c:axId val="14597788"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3680,12 +4415,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7081364"/>
+        <c:crossAx val="8788557"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="3487695"/>
+        <c:axId val="16710565"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,7 +4441,246 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13969760"/>
+        <c:crossAx val="14597788"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Inversion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>8689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pinterest'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pinterest'!$C$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>17554.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>738.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="9607250"/>
+        <c:axId val="16074866"/>
+        <c:axId val="15169080"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="9607250"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16074866"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16074866"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9607250"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="15169080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16074866"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3919,12 +4893,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="12477109"/>
-        <c:axId val="1128600"/>
-        <c:axId val="13416820"/>
+        <c:axId val="15050374"/>
+        <c:axId val="8673148"/>
+        <c:axId val="14634632"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="12477109"/>
+        <c:axId val="15050374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +4925,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128600"/>
+        <c:crossAx val="8673148"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3960,7 +4934,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1128600"/>
+        <c:axId val="8673148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,12 +4955,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12477109"/>
+        <c:crossAx val="15050374"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="13416820"/>
+        <c:axId val="14634632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4981,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128600"/>
+        <c:crossAx val="8673148"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4170,12 +5144,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="7889345"/>
-        <c:axId val="14428319"/>
-        <c:axId val="3368787"/>
+        <c:axId val="7521995"/>
+        <c:axId val="15122959"/>
+        <c:axId val="10305862"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="7889345"/>
+        <c:axId val="7521995"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4202,7 +5176,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14428319"/>
+        <c:crossAx val="15122959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4211,7 +5185,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14428319"/>
+        <c:axId val="15122959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,12 +5206,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7889345"/>
+        <c:crossAx val="7521995"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="3368787"/>
+        <c:axId val="10305862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4258,7 +5232,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14428319"/>
+        <c:crossAx val="15122959"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4621,12 +5595,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2572852"/>
-        <c:axId val="2064707"/>
-        <c:axId val="373087"/>
+        <c:axId val="10435266"/>
+        <c:axId val="6699900"/>
+        <c:axId val="15553500"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2572852"/>
+        <c:axId val="10435266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4653,7 +5627,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064707"/>
+        <c:crossAx val="6699900"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4662,7 +5636,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064707"/>
+        <c:axId val="6699900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4683,12 +5657,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2572852"/>
+        <c:crossAx val="10435266"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="373087"/>
+        <c:axId val="15553500"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4709,7 +5683,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064707"/>
+        <c:crossAx val="6699900"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4932,12 +5906,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="9398512"/>
-        <c:axId val="2432364"/>
-        <c:axId val="9942821"/>
+        <c:axId val="6009625"/>
+        <c:axId val="10741852"/>
+        <c:axId val="719875"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="9398512"/>
+        <c:axId val="6009625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4964,7 +5938,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2432364"/>
+        <c:crossAx val="10741852"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4973,7 +5947,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2432364"/>
+        <c:axId val="10741852"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4994,12 +5968,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9398512"/>
+        <c:crossAx val="6009625"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="9942821"/>
+        <c:axId val="719875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5020,7 +5994,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2432364"/>
+        <c:crossAx val="10741852"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -5243,12 +6217,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="8058719"/>
-        <c:axId val="3879156"/>
-        <c:axId val="8760710"/>
+        <c:axId val="13895722"/>
+        <c:axId val="4136757"/>
+        <c:axId val="2217436"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="8058719"/>
+        <c:axId val="13895722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5275,7 +6249,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3879156"/>
+        <c:crossAx val="4136757"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5284,7 +6258,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3879156"/>
+        <c:axId val="4136757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5305,12 +6279,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8058719"/>
+        <c:crossAx val="13895722"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="8760710"/>
+        <c:axId val="2217436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5331,7 +6305,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3879156"/>
+        <c:crossAx val="4136757"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -5482,12 +6456,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="10834041"/>
-        <c:axId val="8103056"/>
-        <c:axId val="3057642"/>
+        <c:axId val="16296193"/>
+        <c:axId val="14130823"/>
+        <c:axId val="14110926"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="10834041"/>
+        <c:axId val="16296193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5514,7 +6488,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8103056"/>
+        <c:crossAx val="14130823"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5523,7 +6497,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8103056"/>
+        <c:axId val="14130823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5544,12 +6518,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10834041"/>
+        <c:crossAx val="16296193"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="3057642"/>
+        <c:axId val="14110926"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5570,7 +6544,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8103056"/>
+        <c:crossAx val="14130823"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -5765,12 +6739,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="4043139"/>
-        <c:axId val="8450184"/>
-        <c:axId val="6042507"/>
+        <c:axId val="11940986"/>
+        <c:axId val="669459"/>
+        <c:axId val="5540882"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="4043139"/>
+        <c:axId val="11940986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5797,7 +6771,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8450184"/>
+        <c:crossAx val="669459"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5806,7 +6780,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8450184"/>
+        <c:axId val="669459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5827,12 +6801,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4043139"/>
+        <c:crossAx val="11940986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="6042507"/>
+        <c:axId val="5540882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5853,7 +6827,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8450184"/>
+        <c:crossAx val="669459"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6845,6 +7819,167 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="item_6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="item_6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="item_6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -11804,4 +12939,714 @@
   <pageSetup orientation="landscape" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.39887640449438"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE PINTEREST</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="35" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="35" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="34" t="inlineStr">
+        <is>
+          <t>Comunidad</t>
+        </is>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="36" t="inlineStr">
+        <is>
+          <t># Nuevos Followers</t>
+        </is>
+      </c>
+      <c r="C8" s="36">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
+        <v>8689</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="36" t="inlineStr">
+        <is>
+          <t># Followers</t>
+        </is>
+      </c>
+      <c r="C9" s="36">
+        <v>76</v>
+      </c>
+      <c r="D9" s="36">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="36" t="inlineStr">
+        <is>
+          <t># boards</t>
+        </is>
+      </c>
+      <c r="C10" s="36">
+        <v>7</v>
+      </c>
+      <c r="D10" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="36" t="inlineStr">
+        <is>
+          <t># pins</t>
+        </is>
+      </c>
+      <c r="C11" s="36">
+        <v>6978</v>
+      </c>
+      <c r="D11" s="36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="34" t="inlineStr">
+        <is>
+          <t>Interactividad</t>
+        </is>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="36" t="inlineStr">
+        <is>
+          <t># liked</t>
+        </is>
+      </c>
+      <c r="C13" s="36">
+        <v>6978</v>
+      </c>
+      <c r="D13" s="36">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="36" t="inlineStr">
+        <is>
+          <t># repin</t>
+        </is>
+      </c>
+      <c r="C14" s="36">
+        <v>6798</v>
+      </c>
+      <c r="D14" s="36">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="36" t="inlineStr">
+        <is>
+          <t># comments</t>
+        </is>
+      </c>
+      <c r="C15" s="36">
+        <v>867</v>
+      </c>
+      <c r="D15" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="36" t="inlineStr">
+        <is>
+          <t># community boards</t>
+        </is>
+      </c>
+      <c r="C16" s="36">
+        <v>8769</v>
+      </c>
+      <c r="D16" s="36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="34" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="36" t="inlineStr">
+        <is>
+          <t>Inversion Agencia</t>
+        </is>
+      </c>
+      <c r="C18" s="36">
+        <v>7869.0</v>
+      </c>
+      <c r="D18" s="36">
+        <v>567.0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="36" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C19" s="36">
+        <v>7.0</v>
+      </c>
+      <c r="D19" s="36">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="36" t="inlineStr">
+        <is>
+          <t>Inversion anuncios</t>
+        </is>
+      </c>
+      <c r="C20" s="36">
+        <v>9678.0</v>
+      </c>
+      <c r="D20" s="36">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="20">
+      <c r="A21" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="36" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C21" s="36">
+        <v>17554.0</v>
+      </c>
+      <c r="D21" s="36">
+        <v>738.0</v>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Tabla Pinterest</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS PINTEREST</t>
+        </is>
+      </c>
+    </row>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Seguidores</t>
+        </is>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="104"/>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interacciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="146"/>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Inversiones</t>
+        </is>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162">
+      <c r="A162" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B162" s="33" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba Pinterest 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>COmentario Imagen 1 PInterest</t>
+        </is>
+      </c>
+    </row>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204">
+      <c r="A204" s="33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B204" s="33" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Pinterest 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="232"/>
+    <row r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen Prueba Pinterest 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -10,6 +10,10 @@
     <sheet name="Google+" sheetId="5" r:id="rId5"/>
     <sheet name="Linkedin" sheetId="6" r:id="rId6"/>
     <sheet name="Pinterest" sheetId="7" r:id="rId7"/>
+    <sheet name="Tuenti" sheetId="8" r:id="rId8"/>
+    <sheet name="Tumblr" sheetId="9" r:id="rId9"/>
+    <sheet name="Twitter" sheetId="10" r:id="rId10"/>
+    <sheet name="Youtube" sheetId="11" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -20,7 +24,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="45">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -187,8 +191,100 @@
       <sz val="11"/>
       <family val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +361,48 @@
         <fgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="35">
     <border/>
     <border>
       <left style="thin">
@@ -576,11 +712,179 @@
         <color rgb="#00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="#00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="#00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="#00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="#00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="58">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -618,6 +922,26 @@
     <xf borderId="20" numFmtId="0" fontId="26" fillId="14" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="21" numFmtId="0" fontId="27" fillId="15" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="22" numFmtId="0" fontId="28" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="29" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="23" numFmtId="0" fontId="30" fillId="16" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="24" numFmtId="0" fontId="31" fillId="17" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="25" numFmtId="0" fontId="32" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="33" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="26" numFmtId="0" fontId="34" fillId="18" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="27" numFmtId="0" fontId="35" fillId="19" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="28" numFmtId="0" fontId="36" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="37" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="29" numFmtId="0" fontId="38" fillId="20" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="30" numFmtId="0" fontId="39" fillId="21" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="31" numFmtId="0" fontId="40" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="41" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="32" numFmtId="0" fontId="42" fillId="22" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="33" numFmtId="0" fontId="43" fillId="23" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="34" numFmtId="0" fontId="44" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -818,12 +1142,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11757730"/>
-        <c:axId val="11382534"/>
-        <c:axId val="1124757"/>
+        <c:axId val="5600433"/>
+        <c:axId val="6846499"/>
+        <c:axId val="4792407"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="11757730"/>
+        <c:axId val="5600433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +1174,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11382534"/>
+        <c:crossAx val="6846499"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -859,7 +1183,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11382534"/>
+        <c:axId val="6846499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,12 +1204,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11757730"/>
+        <c:crossAx val="5600433"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1124757"/>
+        <c:axId val="4792407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +1230,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11382534"/>
+        <c:crossAx val="6846499"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1057,12 +1381,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6911752"/>
-        <c:axId val="15429964"/>
-        <c:axId val="5308118"/>
+        <c:axId val="14602935"/>
+        <c:axId val="11047223"/>
+        <c:axId val="3810491"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="6911752"/>
+        <c:axId val="14602935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1413,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15429964"/>
+        <c:crossAx val="11047223"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,7 +1422,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15429964"/>
+        <c:axId val="11047223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,12 +1443,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6911752"/>
+        <c:crossAx val="14602935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="5308118"/>
+        <c:axId val="3810491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1469,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15429964"/>
+        <c:crossAx val="11047223"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1296,12 +1620,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="8659165"/>
-        <c:axId val="6180558"/>
-        <c:axId val="13710710"/>
+        <c:axId val="10500911"/>
+        <c:axId val="4791057"/>
+        <c:axId val="3823435"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="8659165"/>
+        <c:axId val="10500911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1652,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6180558"/>
+        <c:crossAx val="4791057"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1661,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6180558"/>
+        <c:axId val="4791057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,12 +1682,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8659165"/>
+        <c:crossAx val="10500911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="13710710"/>
+        <c:axId val="3823435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1708,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6180558"/>
+        <c:crossAx val="4791057"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1535,12 +1859,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11400920"/>
-        <c:axId val="1948933"/>
-        <c:axId val="7499258"/>
+        <c:axId val="5817390"/>
+        <c:axId val="8728656"/>
+        <c:axId val="227552"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="11400920"/>
+        <c:axId val="5817390"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,7 +1891,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1948933"/>
+        <c:crossAx val="8728656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1576,7 +1900,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1948933"/>
+        <c:axId val="8728656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,12 +1921,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11400920"/>
+        <c:crossAx val="5817390"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="7499258"/>
+        <c:axId val="227552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1947,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1948933"/>
+        <c:crossAx val="8728656"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1774,12 +2098,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="10286499"/>
-        <c:axId val="6471670"/>
-        <c:axId val="3057640"/>
+        <c:axId val="8544075"/>
+        <c:axId val="13668429"/>
+        <c:axId val="13634724"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="10286499"/>
+        <c:axId val="8544075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +2130,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6471670"/>
+        <c:crossAx val="13668429"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1815,7 +2139,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6471670"/>
+        <c:axId val="13668429"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,12 +2160,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10286499"/>
+        <c:crossAx val="8544075"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="3057640"/>
+        <c:axId val="13634724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +2186,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6471670"/>
+        <c:crossAx val="13668429"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2057,12 +2381,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15059431"/>
-        <c:axId val="6127190"/>
-        <c:axId val="543490"/>
+        <c:axId val="65919"/>
+        <c:axId val="11100908"/>
+        <c:axId val="893790"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15059431"/>
+        <c:axId val="65919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2413,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6127190"/>
+        <c:crossAx val="11100908"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2098,7 +2422,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6127190"/>
+        <c:axId val="11100908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,12 +2443,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15059431"/>
+        <c:crossAx val="65919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="543490"/>
+        <c:axId val="893790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,7 +2469,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6127190"/>
+        <c:crossAx val="11100908"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2296,12 +2620,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15679521"/>
-        <c:axId val="2667042"/>
-        <c:axId val="5647200"/>
+        <c:axId val="7910381"/>
+        <c:axId val="16535982"/>
+        <c:axId val="11535589"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15679521"/>
+        <c:axId val="7910381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2652,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2667042"/>
+        <c:crossAx val="16535982"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2661,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2667042"/>
+        <c:axId val="16535982"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,12 +2682,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15679521"/>
+        <c:crossAx val="7910381"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="5647200"/>
+        <c:axId val="11535589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,7 +2708,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2667042"/>
+        <c:crossAx val="16535982"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2607,12 +2931,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1742678"/>
-        <c:axId val="15959065"/>
-        <c:axId val="2289240"/>
+        <c:axId val="9700397"/>
+        <c:axId val="15598060"/>
+        <c:axId val="9778985"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="1742678"/>
+        <c:axId val="9700397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,7 +2963,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15959065"/>
+        <c:crossAx val="15598060"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2648,7 +2972,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15959065"/>
+        <c:axId val="15598060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,12 +2993,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1742678"/>
+        <c:crossAx val="9700397"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2289240"/>
+        <c:axId val="9778985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,7 +3019,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15959065"/>
+        <c:crossAx val="15598060"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3398,12 +3722,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="573925"/>
-        <c:axId val="8315829"/>
-        <c:axId val="3577617"/>
+        <c:axId val="9618012"/>
+        <c:axId val="13780868"/>
+        <c:axId val="9028176"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="573925"/>
+        <c:axId val="9618012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +3754,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8315829"/>
+        <c:crossAx val="13780868"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3439,7 +3763,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8315829"/>
+        <c:axId val="13780868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,12 +3784,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573925"/>
+        <c:crossAx val="9618012"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="3577617"/>
+        <c:axId val="9028176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,7 +3810,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8315829"/>
+        <c:crossAx val="13780868"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3725,12 +4049,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6676456"/>
-        <c:axId val="6687606"/>
-        <c:axId val="9672309"/>
+        <c:axId val="70439"/>
+        <c:axId val="9993923"/>
+        <c:axId val="6275705"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="6676456"/>
+        <c:axId val="70439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3757,7 +4081,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6687606"/>
+        <c:crossAx val="9993923"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3766,7 +4090,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6687606"/>
+        <c:axId val="9993923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,12 +4111,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6676456"/>
+        <c:crossAx val="70439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="9672309"/>
+        <c:axId val="6275705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +4137,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6687606"/>
+        <c:crossAx val="9993923"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4052,12 +4376,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15367442"/>
-        <c:axId val="6136765"/>
-        <c:axId val="15051636"/>
+        <c:axId val="5161122"/>
+        <c:axId val="8942950"/>
+        <c:axId val="15596402"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15367442"/>
+        <c:axId val="5161122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4084,7 +4408,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6136765"/>
+        <c:crossAx val="8942950"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4093,7 +4417,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6136765"/>
+        <c:axId val="8942950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4114,12 +4438,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15367442"/>
+        <c:crossAx val="5161122"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="15051636"/>
+        <c:axId val="15596402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,7 +4464,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6136765"/>
+        <c:crossAx val="8942950"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4353,12 +4677,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="8788557"/>
-        <c:axId val="14597788"/>
-        <c:axId val="16710565"/>
+        <c:axId val="15034573"/>
+        <c:axId val="3272923"/>
+        <c:axId val="11486191"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="8788557"/>
+        <c:axId val="15034573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,7 +4709,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14597788"/>
+        <c:crossAx val="3272923"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4394,7 +4718,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14597788"/>
+        <c:axId val="3272923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,12 +4739,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8788557"/>
+        <c:crossAx val="15034573"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="16710565"/>
+        <c:axId val="11486191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4441,7 +4765,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14597788"/>
+        <c:crossAx val="3272923"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4592,12 +4916,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="9607250"/>
-        <c:axId val="16074866"/>
-        <c:axId val="15169080"/>
+        <c:axId val="13901370"/>
+        <c:axId val="12387969"/>
+        <c:axId val="14917138"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="9607250"/>
+        <c:axId val="13901370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4624,7 +4948,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16074866"/>
+        <c:crossAx val="12387969"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4633,7 +4957,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16074866"/>
+        <c:axId val="12387969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,12 +4978,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9607250"/>
+        <c:crossAx val="13901370"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="15169080"/>
+        <c:axId val="14917138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4680,7 +5004,2378 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16074866"/>
+        <c:crossAx val="12387969"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Comunidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos fans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Fans Reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objetivos Fans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="11936686"/>
+        <c:axId val="14120577"/>
+        <c:axId val="4853601"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="11936686"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14120577"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14120577"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11936686"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="4853601"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14120577"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Interacciones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total usuarios unicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clicks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Descargas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Numero Comentarios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fotos subidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>7869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="4463704"/>
+        <c:axId val="14713929"/>
+        <c:axId val="16574013"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="4463704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14713929"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14713929"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4463704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="16574013"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14713929"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Alcance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impresiones de la pagina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>6897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1518438"/>
+        <c:axId val="5050704"/>
+        <c:axId val="10794846"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1518438"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5050704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5050704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1518438"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="10794846"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5050704"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Inversion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion agencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>87.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion nuevas acciones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6987.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>687.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion anuncios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>786.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7680.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>1560.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="2663134"/>
+        <c:axId val="12369256"/>
+        <c:axId val="3836528"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="2663134"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12369256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12369256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2663134"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="3836528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12369256"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Costes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coste Fan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tuenti'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tuenti'!$C$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>2.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="2482380"/>
+        <c:axId val="8267401"/>
+        <c:axId val="9628938"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="2482380"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8267401"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8267401"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2482380"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="9628938"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8267401"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Followers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tumblr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tumblr'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tumblr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tumblr'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="9092797"/>
+        <c:axId val="9292169"/>
+        <c:axId val="16067701"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="9092797"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9292169"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="9292169"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9092797"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="16067701"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9292169"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Interactividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># like</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tumblr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tumblr'!$C$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9768</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>6798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># reblogged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tumblr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tumblr'!$C$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6987</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="4283771"/>
+        <c:axId val="8227749"/>
+        <c:axId val="5921895"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="4283771"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8227749"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8227749"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4283771"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="5921895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8227749"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Inversion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tumblr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tumblr'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tumblr'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tumblr'!$C$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>17183.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>1560.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="13753591"/>
+        <c:axId val="7822458"/>
+        <c:axId val="6826775"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="13753591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7822458"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7822458"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13753591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="6826775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7822458"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Comunidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>-31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objetivos Followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="902132"/>
+        <c:axId val="10627856"/>
+        <c:axId val="10325625"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="902132"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10627856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="10627856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902132"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="10325625"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10627856"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4893,12 +7588,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="15050374"/>
-        <c:axId val="8673148"/>
-        <c:axId val="14634632"/>
+        <c:axId val="4174516"/>
+        <c:axId val="9586086"/>
+        <c:axId val="6268040"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="15050374"/>
+        <c:axId val="4174516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4925,7 +7620,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8673148"/>
+        <c:crossAx val="9586086"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4934,7 +7629,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8673148"/>
+        <c:axId val="9586086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4955,12 +7650,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15050374"/>
+        <c:crossAx val="4174516"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="14634632"/>
+        <c:axId val="6268040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4981,7 +7676,1818 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8673148"/>
+        <c:crossAx val="9586086"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Interactividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># menciones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6578</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>67897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># retweets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6875</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clicks Enlaces</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6785</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Interacciones en twitter ads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interacciones en Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>20895.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>68794.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="5757108"/>
+        <c:axId val="8420927"/>
+        <c:axId val="10588983"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="5757108"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8420927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8420927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5757108"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="10588983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8420927"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Inversion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># nuevos followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>-31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inversion Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$33:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>1676.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="6412819"/>
+        <c:axId val="13611169"/>
+        <c:axId val="12740509"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="6412819"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13611169"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13611169"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6412819"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="12740509"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13611169"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Costes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>-54.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost per engagement twitter ads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$35:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>678.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>789.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coste por mil impresiones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$36:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>610.15</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>1369.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coste por interaccion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Twitter'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Twitter'!$C$37:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="11910149"/>
+        <c:axId val="16217293"/>
+        <c:axId val="25278"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="11910149"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16217293"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16217293"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11910149"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="25278"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16217293"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Comunidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suscriptores nuevos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>8588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>8675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="10776610"/>
+        <c:axId val="7370069"/>
+        <c:axId val="5176841"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="10776610"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7370069"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7370069"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10776610"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="5176841"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7370069"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:t>Interactividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reproducciones videos en el periodo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>6687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reproductor insertado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6978</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dispositivos moviles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9786.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>976.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Busqueda de Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>786.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>586.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sugerencia de Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>866.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pagina de canal de Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>7865.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sitio externo a Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>234.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Busqueda de Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6987.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>657.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Otras paginas de Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>678.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>6789.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suscripciones de Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>987.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>76.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Publicidad de Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Youtube'!$C$6:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>01 Nov - 01 Nov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02 Nov - 02 Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Youtube'!$C$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="General">
+                  <c:v>76.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="6570072"/>
+        <c:axId val="10381943"/>
+        <c:axId val="4557570"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="6570072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10381943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="10381943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6570072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="4557570"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10381943"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -5144,12 +9650,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="7521995"/>
-        <c:axId val="15122959"/>
-        <c:axId val="10305862"/>
+        <c:axId val="3337713"/>
+        <c:axId val="8555721"/>
+        <c:axId val="4868661"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="7521995"/>
+        <c:axId val="3337713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5176,7 +9682,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15122959"/>
+        <c:crossAx val="8555721"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5185,7 +9691,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15122959"/>
+        <c:axId val="8555721"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5206,12 +9712,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7521995"/>
+        <c:crossAx val="3337713"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="10305862"/>
+        <c:axId val="4868661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5232,7 +9738,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15122959"/>
+        <c:crossAx val="8555721"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -5595,12 +10101,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="10435266"/>
-        <c:axId val="6699900"/>
-        <c:axId val="15553500"/>
+        <c:axId val="8215923"/>
+        <c:axId val="16217427"/>
+        <c:axId val="16147070"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="10435266"/>
+        <c:axId val="8215923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5627,7 +10133,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6699900"/>
+        <c:crossAx val="16217427"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5636,7 +10142,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6699900"/>
+        <c:axId val="16217427"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5657,12 +10163,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10435266"/>
+        <c:crossAx val="8215923"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="15553500"/>
+        <c:axId val="16147070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5683,7 +10189,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6699900"/>
+        <c:crossAx val="16217427"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -5906,12 +10412,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6009625"/>
-        <c:axId val="10741852"/>
-        <c:axId val="719875"/>
+        <c:axId val="9911302"/>
+        <c:axId val="2458057"/>
+        <c:axId val="6673844"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="6009625"/>
+        <c:axId val="9911302"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5938,7 +10444,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10741852"/>
+        <c:crossAx val="2458057"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5947,7 +10453,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10741852"/>
+        <c:axId val="2458057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,12 +10474,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6009625"/>
+        <c:crossAx val="9911302"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="719875"/>
+        <c:axId val="6673844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,7 +10500,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10741852"/>
+        <c:crossAx val="2458057"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6217,12 +10723,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="13895722"/>
-        <c:axId val="4136757"/>
-        <c:axId val="2217436"/>
+        <c:axId val="4803459"/>
+        <c:axId val="12581705"/>
+        <c:axId val="2447610"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="13895722"/>
+        <c:axId val="4803459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6249,7 +10755,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4136757"/>
+        <c:crossAx val="12581705"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6258,7 +10764,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4136757"/>
+        <c:axId val="12581705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6279,12 +10785,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13895722"/>
+        <c:crossAx val="4803459"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2217436"/>
+        <c:axId val="2447610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6305,7 +10811,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4136757"/>
+        <c:crossAx val="12581705"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6456,12 +10962,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="16296193"/>
-        <c:axId val="14130823"/>
-        <c:axId val="14110926"/>
+        <c:axId val="3446032"/>
+        <c:axId val="15873021"/>
+        <c:axId val="3466121"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="16296193"/>
+        <c:axId val="3446032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,7 +10994,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14130823"/>
+        <c:crossAx val="15873021"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6497,7 +11003,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14130823"/>
+        <c:axId val="15873021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6518,12 +11024,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16296193"/>
+        <c:crossAx val="3446032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="14110926"/>
+        <c:axId val="3466121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,7 +11050,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14130823"/>
+        <c:crossAx val="15873021"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6739,12 +11245,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11940986"/>
-        <c:axId val="669459"/>
-        <c:axId val="5540882"/>
+        <c:axId val="9145639"/>
+        <c:axId val="6010475"/>
+        <c:axId val="598133"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="11940986"/>
+        <c:axId val="9145639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6771,7 +11277,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669459"/>
+        <c:crossAx val="6010475"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6780,7 +11286,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="669459"/>
+        <c:axId val="6010475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6801,12 +11307,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11940986"/>
+        <c:crossAx val="9145639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="5540882"/>
+        <c:axId val="598133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,7 +11333,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669459"/>
+        <c:crossAx val="6010475"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -7052,6 +11558,328 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="item_9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="item_9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="item_9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="item_9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="item_10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="item_10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7980,6 +12808,388 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="item_7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="item_7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="item_7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="item_7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="item_7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="item_8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="item_8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="item_8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2336800" cy="2161540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -9233,6 +14443,1827 @@
     <row r="360"/>
     <row r="361"/>
     <row r="362"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.298876404494386"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.68988764044944"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE TWITTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="50" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="50" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="50" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="49" t="inlineStr">
+        <is>
+          <t>Comunidad</t>
+        </is>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="51" t="inlineStr">
+        <is>
+          <t># nuevos followers</t>
+        </is>
+      </c>
+      <c r="C8" s="51">
+        <v>0</v>
+      </c>
+      <c r="D8" s="51">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="51" t="inlineStr">
+        <is>
+          <t># followers</t>
+        </is>
+      </c>
+      <c r="C9" s="51">
+        <v>65</v>
+      </c>
+      <c r="D9" s="51">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="51" t="inlineStr">
+        <is>
+          <t>% Crecimiento</t>
+        </is>
+      </c>
+      <c r="C10" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="51">
+        <v>-91.18</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="51" t="inlineStr">
+        <is>
+          <t>Objetivo Followers</t>
+        </is>
+      </c>
+      <c r="C11" s="51">
+        <v>657</v>
+      </c>
+      <c r="D11" s="51">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="51" t="inlineStr">
+        <is>
+          <t># numero tweets en total</t>
+        </is>
+      </c>
+      <c r="C12" s="51">
+        <v>657</v>
+      </c>
+      <c r="D12" s="51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="51" t="inlineStr">
+        <is>
+          <t># tweets periodo</t>
+        </is>
+      </c>
+      <c r="C13" s="51">
+        <v>657.0</v>
+      </c>
+      <c r="D13" s="51">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="49" t="inlineStr">
+        <is>
+          <t>Interactividad</t>
+        </is>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="51" t="inlineStr">
+        <is>
+          <t># Menciones</t>
+        </is>
+      </c>
+      <c r="C15" s="51">
+        <v>6578</v>
+      </c>
+      <c r="D15" s="51">
+        <v>67897</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="51" t="inlineStr">
+        <is>
+          <t>% cambio en mensiones</t>
+        </is>
+      </c>
+      <c r="C16" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="51">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="51" t="inlineStr">
+        <is>
+          <t># Retweets</t>
+        </is>
+      </c>
+      <c r="C17" s="51">
+        <v>6875</v>
+      </c>
+      <c r="D17" s="51">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="51" t="inlineStr">
+        <is>
+          <t>% cambio en retweets</t>
+        </is>
+      </c>
+      <c r="C18" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="51">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="51" t="inlineStr">
+        <is>
+          <t>Clicks enlaces</t>
+        </is>
+      </c>
+      <c r="C19" s="51">
+        <v>6785</v>
+      </c>
+      <c r="D19" s="51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="51" t="inlineStr">
+        <is>
+          <t>% cambio en clics</t>
+        </is>
+      </c>
+      <c r="C20" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="51">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="20">
+      <c r="A21" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="51" t="inlineStr">
+        <is>
+          <t>Interacciones en twitter ads</t>
+        </is>
+      </c>
+      <c r="C21" s="51">
+        <v>657</v>
+      </c>
+      <c r="D21" s="51">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="20">
+      <c r="A22" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="51" t="inlineStr">
+        <is>
+          <t>% cambio interacciones en twitter ads</t>
+        </is>
+      </c>
+      <c r="C22" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="51">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="20">
+      <c r="A23" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="51" t="inlineStr">
+        <is>
+          <t>Interacciones en Total</t>
+        </is>
+      </c>
+      <c r="C23" s="51">
+        <v>20895.0</v>
+      </c>
+      <c r="D23" s="51">
+        <v>68794.0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="20">
+      <c r="A24" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="51" t="inlineStr">
+        <is>
+          <t>% cambio en interacciones</t>
+        </is>
+      </c>
+      <c r="C24" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="51">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="20">
+      <c r="A25" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="51" t="inlineStr">
+        <is>
+          <t># impresiones(tweetreach)</t>
+        </is>
+      </c>
+      <c r="C25" s="51">
+        <v>678</v>
+      </c>
+      <c r="D25" s="51">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="20">
+      <c r="A26" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B26" s="51" t="inlineStr">
+        <is>
+          <t># impreiones en twitter ads</t>
+        </is>
+      </c>
+      <c r="C26" s="51">
+        <v>879</v>
+      </c>
+      <c r="D26" s="51">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="20">
+      <c r="A27" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B27" s="51" t="inlineStr">
+        <is>
+          <t>impresiones en total</t>
+        </is>
+      </c>
+      <c r="C27" s="51">
+        <v>1557.0</v>
+      </c>
+      <c r="D27" s="51">
+        <v>1224.0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="20">
+      <c r="A28" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B28" s="51" t="inlineStr">
+        <is>
+          <t>% cambio en impresiones</t>
+        </is>
+      </c>
+      <c r="C28" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="51">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="20">
+      <c r="A29" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B29" s="49" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" customHeight="1" ht="20">
+      <c r="A30" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" s="51" t="inlineStr">
+        <is>
+          <t>Inversion Agencia</t>
+        </is>
+      </c>
+      <c r="C30" s="51">
+        <v>78.0</v>
+      </c>
+      <c r="D30" s="51">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="20">
+      <c r="A31" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B31" s="51" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C31" s="51">
+        <v>867.0</v>
+      </c>
+      <c r="D31" s="51">
+        <v>789.0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="20">
+      <c r="A32" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B32" s="51" t="inlineStr">
+        <is>
+          <t>Inversion anuncios</t>
+        </is>
+      </c>
+      <c r="C32" s="51">
+        <v>5.0</v>
+      </c>
+      <c r="D32" s="51">
+        <v>809.0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="20">
+      <c r="A33" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B33" s="51" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C33" s="51">
+        <v>950.0</v>
+      </c>
+      <c r="D33" s="51">
+        <v>1676.0</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="20">
+      <c r="A34" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B34" s="49" t="inlineStr">
+        <is>
+          <t>Costes</t>
+        </is>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+    </row>
+    <row r="35" customHeight="1" ht="20">
+      <c r="A35" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B35" s="51" t="inlineStr">
+        <is>
+          <t>Cost per engagement twitter ads</t>
+        </is>
+      </c>
+      <c r="C35" s="51">
+        <v>678.0</v>
+      </c>
+      <c r="D35" s="51">
+        <v>789.0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="20">
+      <c r="A36" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" s="51" t="inlineStr">
+        <is>
+          <t>Coste por mil impresiones</t>
+        </is>
+      </c>
+      <c r="C36" s="51">
+        <v>610.15</v>
+      </c>
+      <c r="D36" s="51">
+        <v>1369.28</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="20">
+      <c r="A37" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B37" s="51" t="inlineStr">
+        <is>
+          <t>Coste por interaccion</t>
+        </is>
+      </c>
+      <c r="C37" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="D37" s="51">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="20">
+      <c r="A38" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B38" s="51" t="inlineStr">
+        <is>
+          <t>Costes por follower</t>
+        </is>
+      </c>
+      <c r="C38" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="51">
+        <v>-54.06</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Comentario para tabla de twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS TWITTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Comunidad Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="137"/>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interacciones Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178">
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="179"/>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Inversion Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220">
+      <c r="A220" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="221"/>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Costes Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237">
+      <c r="A237" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B237" s="48" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba Twitter 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264">
+      <c r="A264" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="265"/>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279">
+      <c r="A279" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B279" s="48" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba 2 Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306">
+      <c r="A306" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B306" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="307"/>
+    <row r="308">
+      <c r="A308" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
+        <is>
+          <t>Imagen Prueba 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.59887640449439"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE YOUTUBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="55" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="55" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="55" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="54" t="inlineStr">
+        <is>
+          <t>Comunidad</t>
+        </is>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="56" t="inlineStr">
+        <is>
+          <t>Suscriptores nuevos</t>
+        </is>
+      </c>
+      <c r="C8" s="56">
+        <v>0</v>
+      </c>
+      <c r="D8" s="56">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="56" t="inlineStr">
+        <is>
+          <t>Suscriptores totales</t>
+        </is>
+      </c>
+      <c r="C9" s="56">
+        <v>87</v>
+      </c>
+      <c r="D9" s="56">
+        <v>8675</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="54" t="inlineStr">
+        <is>
+          <t>Interactividad</t>
+        </is>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="56" t="inlineStr">
+        <is>
+          <t>Reproducciones videos durante un periodo</t>
+        </is>
+      </c>
+      <c r="C11" s="56">
+        <v>678</v>
+      </c>
+      <c r="D11" s="56">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="56" t="inlineStr">
+        <is>
+          <t>Reproductor insertado</t>
+        </is>
+      </c>
+      <c r="C12" s="56">
+        <v>6978</v>
+      </c>
+      <c r="D12" s="56">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="56" t="inlineStr">
+        <is>
+          <t>Dispositivos moviles</t>
+        </is>
+      </c>
+      <c r="C13" s="56">
+        <v>9786.0</v>
+      </c>
+      <c r="D13" s="56">
+        <v>976.0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="56" t="inlineStr">
+        <is>
+          <t>Busqueda en Youtube</t>
+        </is>
+      </c>
+      <c r="C14" s="56">
+        <v>786.0</v>
+      </c>
+      <c r="D14" s="56">
+        <v>586.0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="56" t="inlineStr">
+        <is>
+          <t>Sugerencia de Youtube</t>
+        </is>
+      </c>
+      <c r="C15" s="56">
+        <v>87.0</v>
+      </c>
+      <c r="D15" s="56">
+        <v>866.0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="56" t="inlineStr">
+        <is>
+          <t>Pagina de canal de Youtube</t>
+        </is>
+      </c>
+      <c r="C16" s="56">
+        <v>78.0</v>
+      </c>
+      <c r="D16" s="56">
+        <v>7865.0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="56" t="inlineStr">
+        <is>
+          <t>Sitio web externo</t>
+        </is>
+      </c>
+      <c r="C17" s="56">
+        <v>78.0</v>
+      </c>
+      <c r="D17" s="56">
+        <v>234.0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="56" t="inlineStr">
+        <is>
+          <t>Busqueda en Google</t>
+        </is>
+      </c>
+      <c r="C18" s="56">
+        <v>6987.0</v>
+      </c>
+      <c r="D18" s="56">
+        <v>657.0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="56" t="inlineStr">
+        <is>
+          <t>Otras paginas de Youtube</t>
+        </is>
+      </c>
+      <c r="C19" s="56">
+        <v>678.0</v>
+      </c>
+      <c r="D19" s="56">
+        <v>6789.0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="56" t="inlineStr">
+        <is>
+          <t>Suscripciones de Youtube</t>
+        </is>
+      </c>
+      <c r="C20" s="56">
+        <v>987.0</v>
+      </c>
+      <c r="D20" s="56">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="20">
+      <c r="A21" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="56" t="inlineStr">
+        <is>
+          <t>Publicidad de Youtube</t>
+        </is>
+      </c>
+      <c r="C21" s="56">
+        <v>78.0</v>
+      </c>
+      <c r="D21" s="56">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="20">
+      <c r="A22" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="54" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" customHeight="1" ht="20">
+      <c r="A23" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="56" t="inlineStr">
+        <is>
+          <t>Inversion Agencia</t>
+        </is>
+      </c>
+      <c r="C23" s="56">
+        <v>678.0</v>
+      </c>
+      <c r="D23" s="56">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="20">
+      <c r="A24" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="56" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C24" s="56">
+        <v>745.0</v>
+      </c>
+      <c r="D24" s="56">
+        <v>7786.0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="20">
+      <c r="A25" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="56" t="inlineStr">
+        <is>
+          <t>Inversion anuncios</t>
+        </is>
+      </c>
+      <c r="C25" s="56">
+        <v>7896.0</v>
+      </c>
+      <c r="D25" s="56">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="20">
+      <c r="A26" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B26" s="56" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C26" s="56">
+        <v>9319.0</v>
+      </c>
+      <c r="D26" s="56">
+        <v>7870.0</v>
+      </c>
+    </row>
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Comentario para la tabla de Youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS TWITTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Coumunidad Youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="102"/>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interacciones Youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118">
+      <c r="A118" s="53" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B118" s="53" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba Youtube 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="146"/>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen Prueba 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160">
+      <c r="A160" s="53" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B160" s="53" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="188"/>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Imagen 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
@@ -13649,4 +20680,1643 @@
   <pageSetup orientation="landscape" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.39887640449438"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE TUENTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="40" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="40" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="40" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>Acciones Periodo</t>
+        </is>
+      </c>
+      <c r="C7" s="39" t="inlineStr">
+        <is>
+          <t>Pruebas</t>
+        </is>
+      </c>
+      <c r="D7" s="39" t="inlineStr">
+        <is>
+          <t>Pruebas 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="39" t="inlineStr">
+        <is>
+          <t>Fans</t>
+        </is>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="41" t="inlineStr">
+        <is>
+          <t># nuevos fans</t>
+        </is>
+      </c>
+      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="41" t="inlineStr">
+        <is>
+          <t># fans reales</t>
+        </is>
+      </c>
+      <c r="C10" s="41">
+        <v>76</v>
+      </c>
+      <c r="D10" s="41">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="41" t="inlineStr">
+        <is>
+          <t># Objetivo Fans</t>
+        </is>
+      </c>
+      <c r="C11" s="41">
+        <v>679</v>
+      </c>
+      <c r="D11" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="41" t="inlineStr">
+        <is>
+          <t>Porcentaje crecimiento fans</t>
+        </is>
+      </c>
+      <c r="C12" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="41">
+        <v>71000.0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>Pagina de la empresa</t>
+        </is>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="41" t="inlineStr">
+        <is>
+          <t>Impresiones de la pagina</t>
+        </is>
+      </c>
+      <c r="C14" s="41">
+        <v>679</v>
+      </c>
+      <c r="D14" s="41">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="41" t="inlineStr">
+        <is>
+          <t>Total de usuario unicos</t>
+        </is>
+      </c>
+      <c r="C15" s="41">
+        <v>786</v>
+      </c>
+      <c r="D15" s="41">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="41" t="inlineStr">
+        <is>
+          <t>Clics externos</t>
+        </is>
+      </c>
+      <c r="C16" s="41">
+        <v>678</v>
+      </c>
+      <c r="D16" s="41">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="41" t="inlineStr">
+        <is>
+          <t>Clicks</t>
+        </is>
+      </c>
+      <c r="C17" s="41">
+        <v>678</v>
+      </c>
+      <c r="D17" s="41">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="41" t="inlineStr">
+        <is>
+          <t>Descargars</t>
+        </is>
+      </c>
+      <c r="C18" s="41">
+        <v>678</v>
+      </c>
+      <c r="D18" s="41">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="41" t="inlineStr">
+        <is>
+          <t>Numero de comentarios</t>
+        </is>
+      </c>
+      <c r="C19" s="41">
+        <v>68</v>
+      </c>
+      <c r="D19" s="41">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="41" t="inlineStr">
+        <is>
+          <t>CTR % clic externos</t>
+        </is>
+      </c>
+      <c r="C20" s="41">
+        <v>678.0</v>
+      </c>
+      <c r="D20" s="41">
+        <v>6879.0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="20">
+      <c r="A21" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="41" t="inlineStr">
+        <is>
+          <t>Fotos subidas</t>
+        </is>
+      </c>
+      <c r="C21" s="41">
+        <v>678</v>
+      </c>
+      <c r="D21" s="41">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="20">
+      <c r="A22" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="39" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" customHeight="1" ht="20">
+      <c r="A23" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t>Inversion Agencia</t>
+        </is>
+      </c>
+      <c r="C23" s="41">
+        <v>687.0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="20">
+      <c r="A24" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="41" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C24" s="41">
+        <v>6987.0</v>
+      </c>
+      <c r="D24" s="41">
+        <v>687.0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="20">
+      <c r="A25" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="41" t="inlineStr">
+        <is>
+          <t>Inversion anuncios</t>
+        </is>
+      </c>
+      <c r="C25" s="41">
+        <v>6.0</v>
+      </c>
+      <c r="D25" s="41">
+        <v>786.0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="20">
+      <c r="A26" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C26" s="41">
+        <v>7680.0</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1560.0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="20">
+      <c r="A27" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B27" s="39" t="inlineStr">
+        <is>
+          <t>Coste Fan</t>
+        </is>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" customHeight="1" ht="20">
+      <c r="A28" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t>Coste Fan</t>
+        </is>
+      </c>
+      <c r="C28" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="41">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="31"/>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Comentario para Tabla Tuenti</t>
+        </is>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS TUENTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="102"/>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Fans Tuenti</t>
+        </is>
+      </c>
+    </row>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="142"/>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interacciones Tuenti</t>
+        </is>
+      </c>
+    </row>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="184"/>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>Copmentario Grafico Alcance Tuenti</t>
+        </is>
+      </c>
+    </row>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225">
+      <c r="A225" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="226"/>
+    <row r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Inversiones Tuenti</t>
+        </is>
+      </c>
+    </row>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267">
+      <c r="A267" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="268"/>
+    <row r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Costes Tuenti</t>
+        </is>
+      </c>
+    </row>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284">
+      <c r="A284" s="38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B284" s="38" t="inlineStr">
+        <is>
+          <t>Imagen Prueba Tuenti 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311">
+      <c r="A311" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B311" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="312"/>
+    <row r="313">
+      <c r="A313" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
+        <is>
+          <t>Comentaroi 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326">
+      <c r="A326" s="38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B326" s="38" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba Tuenti 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353">
+      <c r="A353" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B353" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="354"/>
+    <row r="355">
+      <c r="A355" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B355" s="0" t="inlineStr">
+        <is>
+          <t>Comentario 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.8988764044943816"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.49887640449438"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>PAGINA DE TUMBLR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="45" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="45" t="inlineStr">
+        <is>
+          <t>01 Nov - 01 Nov</t>
+        </is>
+      </c>
+      <c r="D6" s="45" t="inlineStr">
+        <is>
+          <t>02 Nov - 02 Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="44" t="inlineStr">
+        <is>
+          <t>Comunidad</t>
+        </is>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="46" t="inlineStr">
+        <is>
+          <t># nuevos followers</t>
+        </is>
+      </c>
+      <c r="C8" s="46">
+        <v>0</v>
+      </c>
+      <c r="D8" s="46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="46" t="inlineStr">
+        <is>
+          <t># followers</t>
+        </is>
+      </c>
+      <c r="C9" s="46">
+        <v>78</v>
+      </c>
+      <c r="D9" s="46">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="44" t="inlineStr">
+        <is>
+          <t>Interactividad</t>
+        </is>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="46" t="inlineStr">
+        <is>
+          <t># like</t>
+        </is>
+      </c>
+      <c r="C11" s="46">
+        <v>9768</v>
+      </c>
+      <c r="D11" s="46">
+        <v>6798</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="46" t="inlineStr">
+        <is>
+          <t># reblogged</t>
+        </is>
+      </c>
+      <c r="C12" s="46">
+        <v>6987</v>
+      </c>
+      <c r="D12" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="44" t="inlineStr">
+        <is>
+          <t>Inversion</t>
+        </is>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="46" t="inlineStr">
+        <is>
+          <t>Inversion Agencia</t>
+        </is>
+      </c>
+      <c r="C14" s="46">
+        <v>698.0</v>
+      </c>
+      <c r="D14" s="46">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="46" t="inlineStr">
+        <is>
+          <t>Inversion nuevas acciones</t>
+        </is>
+      </c>
+      <c r="C15" s="46">
+        <v>6798.0</v>
+      </c>
+      <c r="D15" s="46">
+        <v>876.0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="46" t="inlineStr">
+        <is>
+          <t>Inversion anuncios</t>
+        </is>
+      </c>
+      <c r="C16" s="46">
+        <v>9687.0</v>
+      </c>
+      <c r="D16" s="46">
+        <v>678.0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="46" t="inlineStr">
+        <is>
+          <t>Inversion Total</t>
+        </is>
+      </c>
+      <c r="C17" s="46">
+        <v>17183.0</v>
+      </c>
+      <c r="D17" s="46">
+        <v>1560.0</v>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Comentario para la tabla Tumblr</t>
+        </is>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>GRAFICOS TUMBLR</t>
+        </is>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Followers Tumblr</t>
+        </is>
+      </c>
+    </row>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Interactividad Tumblr</t>
+        </is>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Grafico Inversion Tumblr</t>
+        </is>
+      </c>
+    </row>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164">
+      <c r="A164" s="43" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B164" s="43" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba Tumblr 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="192"/>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Tumblr 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206">
+      <c r="A206" s="43" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B206" s="43" t="inlineStr">
+        <is>
+          <t>Imagen de Prueba Tumblr 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>Comentario</t>
+        </is>
+      </c>
+    </row>
+    <row r="234"/>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>Comentario Prueba Tumblr 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0" left="0" bottom="0" top="0" footer="0.5" header="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>